--- a/Library.xlsx
+++ b/Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB8CB8-0BA5-4F71-821A-4E9B39927C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02431C05-7DFC-40F7-9CF3-92A131E52226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Subcategory</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Светильник</t>
+  </si>
+  <si>
+    <t>Есть множитель</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -851,25 +854,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -877,38 +881,41 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -920,26 +927,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -947,90 +954,93 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>63925</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1065,26 +1075,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1092,54 +1102,57 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.74</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
   </sheetData>
@@ -1150,118 +1163,121 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1449,87 +1465,91 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2004209</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
   </sheetData>
@@ -1540,24 +1560,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1565,52 +1588,55 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2031400</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="81" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="5"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1620,24 +1646,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1645,36 +1672,36 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="D2">
-        <v>111</v>
       </c>
       <c r="E2">
         <v>111</v>
@@ -1689,6 +1716,9 @@
         <v>111</v>
       </c>
       <c r="I2">
+        <v>111</v>
+      </c>
+      <c r="J2">
         <v>111</v>
       </c>
     </row>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02431C05-7DFC-40F7-9CF3-92A131E52226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C6CC2-CC63-4864-AE6D-DFF43D3D3FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C6CC2-CC63-4864-AE6D-DFF43D3D3FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01725560-1B45-44C1-B381-028FC96EFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>Subcategory</t>
   </si>
@@ -148,9 +148,6 @@
     <t>шт.</t>
   </si>
   <si>
-    <t>Гладкая ПВХ труба 25</t>
-  </si>
-  <si>
     <t>Труба ПВХ жёсткая гладкая д.25мм, лёгкая</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>ДКС</t>
   </si>
   <si>
-    <t>Профиль 41х21</t>
-  </si>
-  <si>
     <t>С-образный профиль</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>BPM2130</t>
   </si>
   <si>
-    <t>Анкер М4</t>
-  </si>
-  <si>
     <t>Латунный разрезной анкер</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>CM410416</t>
   </si>
   <si>
-    <t>Анкер-шпилька М12х115</t>
-  </si>
-  <si>
     <t>Анкер-шпилька HSA-R M12x115</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>Hilti</t>
   </si>
   <si>
-    <t>Химический анкер</t>
-  </si>
-  <si>
     <t>Химический анкер Hilti HIT-MM Plus для бетона 500мл</t>
   </si>
   <si>
@@ -212,6 +197,27 @@
   </si>
   <si>
     <t>Есть множитель</t>
+  </si>
+  <si>
+    <t>кабель с герметичным разъемом</t>
+  </si>
+  <si>
+    <t>гладкая ПВХ труба 25</t>
+  </si>
+  <si>
+    <t>профиль 41х21</t>
+  </si>
+  <si>
+    <t>анкер М4</t>
+  </si>
+  <si>
+    <t>анкер-шпилька М12х115</t>
+  </si>
+  <si>
+    <t>химический анкер</t>
+  </si>
+  <si>
+    <t>светильник</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +887,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -907,7 +913,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
@@ -930,7 +936,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -980,19 +986,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
       </c>
       <c r="F2">
         <v>63925</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1078,7 +1084,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -1128,22 +1134,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1166,7 +1172,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
@@ -1215,19 +1221,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1468,7 +1474,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1496,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
@@ -1516,19 +1522,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2004209</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1563,7 +1569,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -1614,22 +1620,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>2031400</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1648,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1678,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -1698,10 +1704,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>111</v>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01725560-1B45-44C1-B381-028FC96EFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C49862-091E-47BA-A6B4-EA06AB574A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
     <sheet name="Кабель" sheetId="2" r:id="rId2"/>
-    <sheet name="Трубы" sheetId="3" r:id="rId3"/>
-    <sheet name="Коробки" sheetId="4" r:id="rId4"/>
-    <sheet name="Метизы" sheetId="5" r:id="rId5"/>
-    <sheet name="Метизы 2" sheetId="6" r:id="rId6"/>
-    <sheet name="Прочее" sheetId="7" r:id="rId7"/>
-    <sheet name="Светильники" sheetId="8" r:id="rId8"/>
+    <sheet name="Труба" sheetId="10" r:id="rId3"/>
+    <sheet name="Прокладка" sheetId="3" r:id="rId4"/>
+    <sheet name="Коробки" sheetId="4" r:id="rId5"/>
+    <sheet name="Метизы" sheetId="5" r:id="rId6"/>
+    <sheet name="Метизы 2" sheetId="6" r:id="rId7"/>
+    <sheet name="Прочее" sheetId="7" r:id="rId8"/>
+    <sheet name="Светильники" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="425">
   <si>
     <t>Subcategory</t>
   </si>
@@ -88,12 +89,6 @@
     <t>Коробки</t>
   </si>
   <si>
-    <t>трубы</t>
-  </si>
-  <si>
-    <t>Трубы</t>
-  </si>
-  <si>
     <t>кабель</t>
   </si>
   <si>
@@ -202,29 +197,1143 @@
     <t>кабель с герметичным разъемом</t>
   </si>
   <si>
-    <t>гладкая ПВХ труба 25</t>
-  </si>
-  <si>
     <t>профиль 41х21</t>
   </si>
   <si>
-    <t>анкер М4</t>
-  </si>
-  <si>
-    <t>анкер-шпилька М12х115</t>
-  </si>
-  <si>
     <t>химический анкер</t>
   </si>
   <si>
     <t>светильник</t>
+  </si>
+  <si>
+    <t>Лоток неперфорированный 50х50</t>
+  </si>
+  <si>
+    <t>труба 32мм</t>
+  </si>
+  <si>
+    <t>хомут 25</t>
+  </si>
+  <si>
+    <t>лоток неперфорированный 50х50</t>
+  </si>
+  <si>
+    <t>крышка лотка 50х50</t>
+  </si>
+  <si>
+    <t>заглушка лотка 50х50</t>
+  </si>
+  <si>
+    <t>вкладка для обжатия проводов</t>
+  </si>
+  <si>
+    <t>муфта гибкая труба-труба 32</t>
+  </si>
+  <si>
+    <t>муфта труба-труба 32</t>
+  </si>
+  <si>
+    <t>перфорированная полоса 40х4</t>
+  </si>
+  <si>
+    <t>профиль 29х50х2000мм</t>
+  </si>
+  <si>
+    <t>хомут 6х200 упак 100</t>
+  </si>
+  <si>
+    <t>гофра 25</t>
+  </si>
+  <si>
+    <t>гофра 20</t>
+  </si>
+  <si>
+    <t>термоусаживаемая трубка</t>
+  </si>
+  <si>
+    <t>уголок кр од удл 92</t>
+  </si>
+  <si>
+    <t>муфта труба-труба 25</t>
+  </si>
+  <si>
+    <t>прокладка</t>
+  </si>
+  <si>
+    <t>Прокладка</t>
+  </si>
+  <si>
+    <t>Труба стальная оцинкованная</t>
+  </si>
+  <si>
+    <t>Ø32мм</t>
+  </si>
+  <si>
+    <t>6008-32L3ZL</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Стальной хомут 25 мм (3/4") оцинкованный</t>
+  </si>
+  <si>
+    <t>6040-25</t>
+  </si>
+  <si>
+    <t>толщ. 0.7мм</t>
+  </si>
+  <si>
+    <t>Крышка на лоток осн. 50</t>
+  </si>
+  <si>
+    <t>толщ. 0.6мм</t>
+  </si>
+  <si>
+    <t>Заглушка цельная ТС 50х50</t>
+  </si>
+  <si>
+    <t>сталь оцинкованная</t>
+  </si>
+  <si>
+    <t>Хомут стальной с внутренней резьбой М6, д.26мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкладка для обжатия провода (ПВ3ж/з 1х4) в сальнике </t>
+  </si>
+  <si>
+    <t>6000339GT</t>
+  </si>
+  <si>
+    <t>Techno</t>
+  </si>
+  <si>
+    <t>Гвоздь 22мм по бетону для пистолета Toua (упак. 1000 шт.)</t>
+  </si>
+  <si>
+    <t>ASH, С6, НС6 в кассете</t>
+  </si>
+  <si>
+    <t>2722smoothEG</t>
+  </si>
+  <si>
+    <t>Toua</t>
+  </si>
+  <si>
+    <t>Муфта труба-труба</t>
+  </si>
+  <si>
+    <t>Муфта гибкая труба-труба</t>
+  </si>
+  <si>
+    <t>Наконечник кольцевой</t>
+  </si>
+  <si>
+    <t>НКИ4-8</t>
+  </si>
+  <si>
+    <t>КВТ</t>
+  </si>
+  <si>
+    <t>Перфорированая оцинкованная полоса 40х4</t>
+  </si>
+  <si>
+    <t>Монтажная перфолента ЛСП 20х0,5 мм (бухта 25м)</t>
+  </si>
+  <si>
+    <t>Прямого сечения (ЛСП)</t>
+  </si>
+  <si>
+    <t>1701201-0502</t>
+  </si>
+  <si>
+    <t>Профиль П-образный перфорированный, толщина металла 1,5мм, оцинкованный методом погружения</t>
+  </si>
+  <si>
+    <t>BPL-29 29х50х2000мм</t>
+  </si>
+  <si>
+    <t>BPL2920HDZ</t>
+  </si>
+  <si>
+    <t>Профиль перфорированный П-образный толщ. 1,5 мм, горячее цинкование методом погружения толщ. покрытия 55 мкм</t>
+  </si>
+  <si>
+    <t>40х56х2010мм</t>
+  </si>
+  <si>
+    <t>CLM500-PPP-200-15-HDZ</t>
+  </si>
+  <si>
+    <t>ИЭК</t>
+  </si>
+  <si>
+    <t>Хомут пластиковый IEK 3.6х200мм черн. (упаковка 100шт.)</t>
+  </si>
+  <si>
+    <t>UHH33-D036-200-100-K02</t>
+  </si>
+  <si>
+    <t>Труба гофрированная из ПА, стойкость к горению ПВ-0,       устойчивая к УФ, черная</t>
+  </si>
+  <si>
+    <t>PR02.0103</t>
+  </si>
+  <si>
+    <t>Промрукав</t>
+  </si>
+  <si>
+    <t>Ø20мм</t>
+  </si>
+  <si>
+    <t>PR02.0102</t>
+  </si>
+  <si>
+    <t>Гильзы под опрессовку в термоусаживаемом корпусе</t>
+  </si>
+  <si>
+    <t>ГИС-Т</t>
+  </si>
+  <si>
+    <t>Трубка термоусаживаемая с клеевым составом</t>
+  </si>
+  <si>
+    <t>H5(3x) 12,0/4,0 мм (3:1)</t>
+  </si>
+  <si>
+    <t>21-2008</t>
+  </si>
+  <si>
+    <t>Rexant</t>
+  </si>
+  <si>
+    <t>Уголок крепёжный одинарный удлинённый, 92мм</t>
+  </si>
+  <si>
+    <t>CLM50D</t>
+  </si>
+  <si>
+    <t>CLM50D-UOS-092-40-HDZ</t>
+  </si>
+  <si>
+    <t>IEK</t>
+  </si>
+  <si>
+    <t>IP65, д.25мм</t>
+  </si>
+  <si>
+    <t>Клеммы wago</t>
+  </si>
+  <si>
+    <t>Монтажная коробка открытой установки, из не распростра-няющего горение пластика</t>
+  </si>
+  <si>
+    <t>Abox 025, IP65, ГОСТ Р 50827.1 2009, IEC 60 695-2-1</t>
+  </si>
+  <si>
+    <t>Spelsberg</t>
+  </si>
+  <si>
+    <t>Коробка ответвит. с 6 кабельными вводами д.20мм</t>
+  </si>
+  <si>
+    <t>IP44, 80х80х40мм</t>
+  </si>
+  <si>
+    <t>Коробка ответвительная алюминиевая окрашенная</t>
+  </si>
+  <si>
+    <t>IP66/IP67, 178х155х74мм</t>
+  </si>
+  <si>
+    <t>Кабельный сальник</t>
+  </si>
+  <si>
+    <t>АКМ20</t>
+  </si>
+  <si>
+    <t>Hensel</t>
+  </si>
+  <si>
+    <t>Wago</t>
+  </si>
+  <si>
+    <t>Опорная пластина для C-образных профилей</t>
+  </si>
+  <si>
+    <t>Толщ. 3мм</t>
+  </si>
+  <si>
+    <t>BHM4141</t>
+  </si>
+  <si>
+    <t>П-образный профиль PSM</t>
+  </si>
+  <si>
+    <t>29х50, 3м, толщ. 2.5мм</t>
+  </si>
+  <si>
+    <t>BPM2930</t>
+  </si>
+  <si>
+    <t>Уголок одиночный удлиненный 92 мм, горячеоцинкованный</t>
+  </si>
+  <si>
+    <t>BMC1012HDZ</t>
+  </si>
+  <si>
+    <t>Уголок одиночный удлиненный 92 мм</t>
+  </si>
+  <si>
+    <t>INOX 304</t>
+  </si>
+  <si>
+    <t>IBMC1012C</t>
+  </si>
+  <si>
+    <t>Перфорированная оцинкованная полоса 35х4</t>
+  </si>
+  <si>
+    <t>Соединитель для профилей BPN-29</t>
+  </si>
+  <si>
+    <t>BPN-29</t>
+  </si>
+  <si>
+    <t>BPN2903HDZ</t>
+  </si>
+  <si>
+    <t>С-образный профиль BPL-41</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">41х41, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>L3000, толщ.1,5 мм</t>
+    </r>
+  </si>
+  <si>
+    <t>BPL4130</t>
+  </si>
+  <si>
+    <t>Z-образный профиль BPM-35</t>
+  </si>
+  <si>
+    <t>50х50х50, L3000, 2,5 мм</t>
+  </si>
+  <si>
+    <t>BPM3530</t>
+  </si>
+  <si>
+    <t>коробка Abox 025</t>
+  </si>
+  <si>
+    <t>коробка</t>
+  </si>
+  <si>
+    <t>коробка 80х80х40</t>
+  </si>
+  <si>
+    <t>коробка 178х155х74</t>
+  </si>
+  <si>
+    <t>кабельный сальник 20</t>
+  </si>
+  <si>
+    <t>клеммы wago</t>
+  </si>
+  <si>
+    <t>опорная пластина для профиля</t>
+  </si>
+  <si>
+    <t>профиль 29х50</t>
+  </si>
+  <si>
+    <t>уголок удлиненный 92мм оцинкованный</t>
+  </si>
+  <si>
+    <t>уголок удлиненный 92мм</t>
+  </si>
+  <si>
+    <t>оцинкованная полоса 35х4</t>
+  </si>
+  <si>
+    <t>профиль 41х41</t>
+  </si>
+  <si>
+    <t>Гайка М4</t>
+  </si>
+  <si>
+    <t>М5</t>
+  </si>
+  <si>
+    <t>CM410421</t>
+  </si>
+  <si>
+    <t>М6</t>
+  </si>
+  <si>
+    <t>CM410625</t>
+  </si>
+  <si>
+    <t>М8</t>
+  </si>
+  <si>
+    <t>CM410831</t>
+  </si>
+  <si>
+    <t>М10</t>
+  </si>
+  <si>
+    <t>CM411034</t>
+  </si>
+  <si>
+    <t>CM411241</t>
+  </si>
+  <si>
+    <t>М14</t>
+  </si>
+  <si>
+    <t>CM411443</t>
+  </si>
+  <si>
+    <t>Болт М4х16 с шестигранной головкой оцинкованный</t>
+  </si>
+  <si>
+    <t>CM080416</t>
+  </si>
+  <si>
+    <t>Болт М5х20 с шестигранной головкой оцинкованный</t>
+  </si>
+  <si>
+    <t>CM080520</t>
+  </si>
+  <si>
+    <t>Болт М5х30 с шестигранной головкой оцинкованный</t>
+  </si>
+  <si>
+    <t>Tech-KREP</t>
+  </si>
+  <si>
+    <t>Болт с шестигранной головкой М6х20</t>
+  </si>
+  <si>
+    <t>CM020620</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М6х25</t>
+  </si>
+  <si>
+    <t>CM080625</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М6х45</t>
+  </si>
+  <si>
+    <t>CM080645</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М8х16</t>
+  </si>
+  <si>
+    <t>CM020816</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М8х25</t>
+  </si>
+  <si>
+    <t>CM020825</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М8х30</t>
+  </si>
+  <si>
+    <t>CM080830</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М8х40</t>
+  </si>
+  <si>
+    <t>CM080840</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М8х50</t>
+  </si>
+  <si>
+    <t>CM080850</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой и неполной резьбой М8х60</t>
+  </si>
+  <si>
+    <t>CM020860</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М8х80</t>
+  </si>
+  <si>
+    <t>CM080880</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х25</t>
+  </si>
+  <si>
+    <t>CM021025</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х35</t>
+  </si>
+  <si>
+    <t>CM081035</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х50</t>
+  </si>
+  <si>
+    <t>CM021050</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х60</t>
+  </si>
+  <si>
+    <t>CM081060</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х70</t>
+  </si>
+  <si>
+    <t>CM081070</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х80</t>
+  </si>
+  <si>
+    <t>CM081080</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х90</t>
+  </si>
+  <si>
+    <t>CM081090</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный оцинкованный оцинкованный с шестигранной головкой М10х100</t>
+  </si>
+  <si>
+    <t>CM081010</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х110</t>
+  </si>
+  <si>
+    <t>CM081011</t>
+  </si>
+  <si>
+    <t>Болт оцинкованный с шестигранной головкой М10х120</t>
+  </si>
+  <si>
+    <t>CM081012</t>
+  </si>
+  <si>
+    <t>Болт с шестигранной головкой М12х80</t>
+  </si>
+  <si>
+    <t>CM081280</t>
+  </si>
+  <si>
+    <t>DIN 934</t>
+  </si>
+  <si>
+    <t>Гайка с насечкой, препятствующей откручиванию М5</t>
+  </si>
+  <si>
+    <t>CM100500</t>
+  </si>
+  <si>
+    <t>Гайка оцинкованная шестигранная</t>
+  </si>
+  <si>
+    <t>CM110600</t>
+  </si>
+  <si>
+    <t>CM110800</t>
+  </si>
+  <si>
+    <t>CM111000</t>
+  </si>
+  <si>
+    <t>CM111200</t>
+  </si>
+  <si>
+    <t>Гайка оцинкованная самоконтрящаяся</t>
+  </si>
+  <si>
+    <t>CM250600</t>
+  </si>
+  <si>
+    <t>CM250800</t>
+  </si>
+  <si>
+    <t>CM251000</t>
+  </si>
+  <si>
+    <t>CM251200</t>
+  </si>
+  <si>
+    <t>Соединительная гайка М6х25</t>
+  </si>
+  <si>
+    <t>CM210625</t>
+  </si>
+  <si>
+    <t>Соединительная гайка М8х25</t>
+  </si>
+  <si>
+    <t>CM210825</t>
+  </si>
+  <si>
+    <t>Соединительная гайка М10х30</t>
+  </si>
+  <si>
+    <t>CM211030</t>
+  </si>
+  <si>
+    <t>Соединительная гайка М12х40</t>
+  </si>
+  <si>
+    <t>CM211240</t>
+  </si>
+  <si>
+    <t>Заклепка A2/A2 4×6</t>
+  </si>
+  <si>
+    <t>Dk 8.0, K1.1, F4.1-4.2</t>
+  </si>
+  <si>
+    <t>HARPOON</t>
+  </si>
+  <si>
+    <t>возможна замена на аналог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заклепка A2/A2 4×8 </t>
+  </si>
+  <si>
+    <t>Заклепка A2/A2 4×10</t>
+  </si>
+  <si>
+    <t>Шайба оцинкованная кузовная</t>
+  </si>
+  <si>
+    <t>CM120400</t>
+  </si>
+  <si>
+    <t>CM120500</t>
+  </si>
+  <si>
+    <t>CM120600</t>
+  </si>
+  <si>
+    <t>CM120800</t>
+  </si>
+  <si>
+    <t>CM121000</t>
+  </si>
+  <si>
+    <t>CM121200</t>
+  </si>
+  <si>
+    <t>CM121400</t>
+  </si>
+  <si>
+    <t>Шайба оцинкованная с узкими полями</t>
+  </si>
+  <si>
+    <t>CM240400</t>
+  </si>
+  <si>
+    <t>CM240500</t>
+  </si>
+  <si>
+    <t>CM240600</t>
+  </si>
+  <si>
+    <t>CM240800</t>
+  </si>
+  <si>
+    <t>CM241000</t>
+  </si>
+  <si>
+    <t>CM241200</t>
+  </si>
+  <si>
+    <t>CM241400</t>
+  </si>
+  <si>
+    <t>Шайба гровер оцинкованная</t>
+  </si>
+  <si>
+    <t>CM130600</t>
+  </si>
+  <si>
+    <t>CM130800</t>
+  </si>
+  <si>
+    <t>CM131000</t>
+  </si>
+  <si>
+    <t>CM131200</t>
+  </si>
+  <si>
+    <t>Шпилька</t>
+  </si>
+  <si>
+    <t>CM200602</t>
+  </si>
+  <si>
+    <t>CM200802</t>
+  </si>
+  <si>
+    <t>CM201002</t>
+  </si>
+  <si>
+    <t>CM201202</t>
+  </si>
+  <si>
+    <t>Шуруп</t>
+  </si>
+  <si>
+    <t>Шуруп М8х60</t>
+  </si>
+  <si>
+    <t>заклепка 4х6</t>
+  </si>
+  <si>
+    <t>заклепка 4х8</t>
+  </si>
+  <si>
+    <t>заклепка 4х10</t>
+  </si>
+  <si>
+    <t>шуруп 8х60</t>
+  </si>
+  <si>
+    <t>Заклепка A2/A2 4,0×8 Dk6,5 K0,8 F4,1-4,2 D3 L8 G3-5</t>
+  </si>
+  <si>
+    <t>Анкер-шпилька HILTI HSA-R M10x83</t>
+  </si>
+  <si>
+    <t>Анкер-шпилька HILTI HSA-R М8х55</t>
+  </si>
+  <si>
+    <t>Винт потайной М6х12 нерж. сталь А2 DIN 7991</t>
+  </si>
+  <si>
+    <t>Винт М4х45 мм с дюбелем M8</t>
+  </si>
+  <si>
+    <t>Дюбель нейлоновый распорный 12х60 мм</t>
+  </si>
+  <si>
+    <t>Саморез 5х50 мм с дюбелем V8</t>
+  </si>
+  <si>
+    <t>5х50</t>
+  </si>
+  <si>
+    <t>CM06523</t>
+  </si>
+  <si>
+    <t>дюбель 12х60</t>
+  </si>
+  <si>
+    <t>саморез 5х50 с дюбелем</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Спрей диэлектрический 210мл</t>
+  </si>
+  <si>
+    <t>Химический анкер Hilti HIT-MM Plus для бетона 330мл</t>
+  </si>
+  <si>
+    <t>HIT-MM PLUS 330/2</t>
+  </si>
+  <si>
+    <t>Nanoprotech 021</t>
+  </si>
+  <si>
+    <t>Обработка коробок 380В</t>
+  </si>
+  <si>
+    <t>Терморасширяющаяся противопожарная пена</t>
+  </si>
+  <si>
+    <t>HILTI CP 660, 315мл</t>
+  </si>
+  <si>
+    <t>HILTI</t>
+  </si>
+  <si>
+    <t>Гильза соединительная изолированная кв.мм (ГСИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПВХ 16-25 </t>
+  </si>
+  <si>
+    <t>2F20P</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 2/1 черная</t>
+  </si>
+  <si>
+    <t>ТТУ нг-LS</t>
+  </si>
+  <si>
+    <t>UDRS-D2-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 8/4 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D8-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 12/6 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D12-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 16/8 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D16-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 35/17,5 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D35-1-K02</t>
+  </si>
+  <si>
+    <t>химический анкер 330</t>
+  </si>
+  <si>
+    <t>химический анкер 500</t>
+  </si>
+  <si>
+    <t>спрей диэлектрический 210мл</t>
+  </si>
+  <si>
+    <t>противопожарная пена</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 1ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 2ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 3ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 5ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка гофра</t>
+  </si>
+  <si>
+    <t>труба</t>
+  </si>
+  <si>
+    <t>Труба</t>
+  </si>
+  <si>
+    <t>гильза гси</t>
+  </si>
+  <si>
+    <t>винт м4х45 с дюбелем м8</t>
+  </si>
+  <si>
+    <t>винт потайной м6х12</t>
+  </si>
+  <si>
+    <t>анкер-шпилька м8х55</t>
+  </si>
+  <si>
+    <t>анкер-шпилька м12х115</t>
+  </si>
+  <si>
+    <t>анкер-шпилька м10х83</t>
+  </si>
+  <si>
+    <t>заклепка а2/а2 4,0×8 dk6,5 k0,8 f4,1-4,2 d3 l8 g3-5</t>
+  </si>
+  <si>
+    <t>анкер м14</t>
+  </si>
+  <si>
+    <t>болт м4х16</t>
+  </si>
+  <si>
+    <t>анкер м4</t>
+  </si>
+  <si>
+    <t>анкер м5</t>
+  </si>
+  <si>
+    <t>анкер м6</t>
+  </si>
+  <si>
+    <t>анкер м8</t>
+  </si>
+  <si>
+    <t>анкер м10</t>
+  </si>
+  <si>
+    <t>анкер м12</t>
+  </si>
+  <si>
+    <t>болт м5х20</t>
+  </si>
+  <si>
+    <t>болт м5х30</t>
+  </si>
+  <si>
+    <t>болт м6х20</t>
+  </si>
+  <si>
+    <t>болт м6х25</t>
+  </si>
+  <si>
+    <t>болт м6х45</t>
+  </si>
+  <si>
+    <t>болт м8х16</t>
+  </si>
+  <si>
+    <t>болт м8х25</t>
+  </si>
+  <si>
+    <t>болт м8х30</t>
+  </si>
+  <si>
+    <t>болт м8х40</t>
+  </si>
+  <si>
+    <t>болт м8х50</t>
+  </si>
+  <si>
+    <t>болт м8х60 с неполной резьбой</t>
+  </si>
+  <si>
+    <t>болт м8х80</t>
+  </si>
+  <si>
+    <t>болт м10х25</t>
+  </si>
+  <si>
+    <t>болт м10х35</t>
+  </si>
+  <si>
+    <t>болт м10х50</t>
+  </si>
+  <si>
+    <t>болт м10х60</t>
+  </si>
+  <si>
+    <t>болт м10х70</t>
+  </si>
+  <si>
+    <t>болт м10х80</t>
+  </si>
+  <si>
+    <t>болт м10х90</t>
+  </si>
+  <si>
+    <t>болт м10х100</t>
+  </si>
+  <si>
+    <t>болт м10х110</t>
+  </si>
+  <si>
+    <t>болт м10х120</t>
+  </si>
+  <si>
+    <t>болт м12х80</t>
+  </si>
+  <si>
+    <t>гайка м4</t>
+  </si>
+  <si>
+    <t>гайка м5</t>
+  </si>
+  <si>
+    <t>гайка м6</t>
+  </si>
+  <si>
+    <t>гайка м8</t>
+  </si>
+  <si>
+    <t>гайка м10</t>
+  </si>
+  <si>
+    <t>гайка м12</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м6</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м8</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м10</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м12</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м6</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м8</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м10</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м12</t>
+  </si>
+  <si>
+    <t>гайка м6х25</t>
+  </si>
+  <si>
+    <t>шайба кузовная м4</t>
+  </si>
+  <si>
+    <t>шайба кузовная м5</t>
+  </si>
+  <si>
+    <t>шайба кузовная м6</t>
+  </si>
+  <si>
+    <t>шайба кузовная м8</t>
+  </si>
+  <si>
+    <t>шайба кузовная м10</t>
+  </si>
+  <si>
+    <t>шайба кузовная м12</t>
+  </si>
+  <si>
+    <t>шайба кузовная м14</t>
+  </si>
+  <si>
+    <t>шайба м4</t>
+  </si>
+  <si>
+    <t>шайба м5</t>
+  </si>
+  <si>
+    <t>шайба м6</t>
+  </si>
+  <si>
+    <t>шайба м8</t>
+  </si>
+  <si>
+    <t>шайба м10</t>
+  </si>
+  <si>
+    <t>шайба м12</t>
+  </si>
+  <si>
+    <t>шайба м14</t>
+  </si>
+  <si>
+    <t>шайба гроверная м6</t>
+  </si>
+  <si>
+    <t>шайба гроверная м8</t>
+  </si>
+  <si>
+    <t>шайба гроверная м10</t>
+  </si>
+  <si>
+    <t>шайба гроверная м12</t>
+  </si>
+  <si>
+    <t>шпилька м6</t>
+  </si>
+  <si>
+    <t>шпилька м8</t>
+  </si>
+  <si>
+    <t>шпилька м10</t>
+  </si>
+  <si>
+    <t>шпилька м12</t>
+  </si>
+  <si>
+    <t>шуруп м4</t>
+  </si>
+  <si>
+    <t>шуруп м8</t>
+  </si>
+  <si>
+    <t>профиль z образный 50х50</t>
+  </si>
+  <si>
+    <t>соединитель bpn-29</t>
+  </si>
+  <si>
+    <t>гильза гим-т</t>
+  </si>
+  <si>
+    <t>гвоздь 22мм по бетону для пистолета toua</t>
+  </si>
+  <si>
+    <t>наконечник кольц нки4-8</t>
+  </si>
+  <si>
+    <t>перфолента лсп 20х0.5 25м</t>
+  </si>
+  <si>
+    <t>профиль п-образный 40х56х2010</t>
+  </si>
+  <si>
+    <t>хомут д25 с резьбой м6</t>
+  </si>
+  <si>
+    <t>гладкая пвх труба 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,6 +1345,13 @@
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -295,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -306,6 +1422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -691,8 +1809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -767,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,63 +1908,74 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -863,16 +1993,17 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
@@ -884,45 +2015,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -932,19 +2063,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F851F222-C619-4439-8BA5-14C5581D8026}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
@@ -957,121 +2089,193 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>424</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>63925</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>50132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>50325</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>50332</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>0.29299999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1080,19 +2284,403 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <v>37240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>35510</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>35010</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17">
+        <v>58026</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
@@ -1105,82 +2693,346 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>53700</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>65303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6">
+        <v>53700</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
         <v>1.74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>0.24</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
@@ -1192,371 +3044,1722 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7633</v>
+      </c>
+      <c r="G11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="A16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2">
-        <v>2004209</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
+        <v>248</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48">
+        <v>11110814006</v>
+      </c>
+      <c r="G48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49">
+        <v>11110814008</v>
+      </c>
+      <c r="G49" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50">
+        <v>11110814010</v>
+      </c>
+      <c r="G50" t="s">
+        <v>257</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>262</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D52" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>265</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" t="s">
+        <v>271</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>275</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" t="s">
+        <v>276</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" t="s">
+        <v>279</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" t="s">
+        <v>281</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
+        <v>282</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" t="s">
+        <v>284</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70">
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s">
+        <v>286</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D73" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D74" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1565,20 +4768,237 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>2004209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3">
+        <v>2004202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4">
+        <v>2004197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5">
+        <v>24676</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>6551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
@@ -1591,55 +5011,307 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2031400</v>
       </c>
       <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3">
+        <v>2031079</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
-        <v>52</v>
+      <c r="F4">
+        <v>2031400</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E81" s="5"/>
@@ -1650,12 +5322,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,39 +5348,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>111</v>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C49862-091E-47BA-A6B4-EA06AB574A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB96FCC-4746-4135-BA2F-97FE584403FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,19 @@
     <sheet name="Прочее" sheetId="7" r:id="rId8"/>
     <sheet name="Светильники" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="427">
   <si>
     <t>Subcategory</t>
   </si>
@@ -1327,6 +1338,12 @@
   </si>
   <si>
     <t>гладкая пвх труба 25</t>
+  </si>
+  <si>
+    <t>ввг 5х2.5</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS 5х2.5мм2</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
@@ -1990,11 +2007,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,9 +2073,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2287,9 +2318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,6 +2389,9 @@
       <c r="A3" s="2" t="s">
         <v>419</v>
       </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
       <c r="D3" t="s">
         <v>91</v>
       </c>
@@ -2620,6 +2654,9 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
       </c>
       <c r="D16" t="s">
         <v>111</v>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB96FCC-4746-4135-BA2F-97FE584403FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183E880-22AA-4A30-B154-603EE44562CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="431">
   <si>
     <t>Subcategory</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>IEK</t>
-  </si>
-  <si>
-    <t>IP65, д.25мм</t>
   </si>
   <si>
     <t>Клеммы wago</t>
@@ -1343,7 +1340,22 @@
     <t>ввг 5х2.5</t>
   </si>
   <si>
-    <t>Кабель ВВГнг-LS 5х2.5мм2</t>
+    <t>Кабель ВВГнг(А)-LS 5х2.5мм2</t>
+  </si>
+  <si>
+    <t>сальник акм20</t>
+  </si>
+  <si>
+    <t>муфта гибкая труба-труба 25</t>
+  </si>
+  <si>
+    <t>профиль 29х50 горячеоцинкованный</t>
+  </si>
+  <si>
+    <t>П-образный профиль PSM, горячеоцинкованный</t>
+  </si>
+  <si>
+    <t>BPM2930HDZ</t>
   </si>
 </sst>
 </file>
@@ -1941,10 +1953,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
         <v>337</v>
-      </c>
-      <c r="B7" t="s">
-        <v>338</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2011,7 +2023,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,10 +2087,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" t="s">
         <v>425</v>
-      </c>
-      <c r="D3" t="s">
-        <v>426</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -2095,11 +2107,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F851F222-C619-4439-8BA5-14C5581D8026}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2161,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2221,16 +2233,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>427</v>
       </c>
       <c r="D5" t="s">
         <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>50132</v>
+        <v>50125</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -2241,70 +2253,90 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>50325</v>
+        <v>50132</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="I6">
-        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>50332</v>
+        <v>50325</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
+      </c>
+      <c r="I7">
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>50332</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>79</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.29299999999999998</v>
       </c>
     </row>
@@ -2318,9 +2350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,10 +2419,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
@@ -2410,7 +2442,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
@@ -2496,7 +2528,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
@@ -2513,7 +2545,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
@@ -2567,16 +2599,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" t="s">
         <v>157</v>
-      </c>
-      <c r="F12" t="s">
-        <v>158</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -2590,7 +2622,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D13" t="s">
         <v>107</v>
@@ -2656,7 +2688,7 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
         <v>111</v>
@@ -2673,7 +2705,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D17" t="s">
         <v>87</v>
@@ -2705,11 +2737,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,16 +2791,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
@@ -2776,13 +2808,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
@@ -2790,13 +2822,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
         <v>133</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
       </c>
       <c r="F4">
         <v>53700</v>
@@ -2813,13 +2845,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
       </c>
       <c r="F5">
         <v>65303</v>
@@ -2836,13 +2868,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
         <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
       </c>
       <c r="F6">
         <v>53700</v>
@@ -2859,19 +2891,19 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" t="s">
         <v>131</v>
-      </c>
-      <c r="G7" t="s">
-        <v>132</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -2879,16 +2911,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2902,10 +2934,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -2916,16 +2948,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
         <v>144</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>145</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -2939,102 +2971,105 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12">
         <v>1.74</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>416</v>
       </c>
-      <c r="D12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" t="s">
         <v>153</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
         <v>154</v>
       </c>
-      <c r="F13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
         <v>149</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" t="s">
-        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -3046,9 +3081,46 @@
         <v>0.24</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3110,7 +3182,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -3133,16 +3205,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
       <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" t="s">
-        <v>176</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -3156,16 +3228,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>178</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -3179,16 +3251,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
         <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -3202,16 +3274,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
       </c>
       <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
         <v>181</v>
-      </c>
-      <c r="F6" t="s">
-        <v>182</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -3225,7 +3297,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -3234,7 +3306,7 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -3248,16 +3320,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" t="s">
-        <v>185</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -3271,16 +3343,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
@@ -3294,16 +3366,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
         <v>188</v>
-      </c>
-      <c r="E10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" t="s">
-        <v>189</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -3317,19 +3389,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="4">
         <v>7633</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
@@ -3337,16 +3409,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -3360,16 +3432,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
         <v>194</v>
-      </c>
-      <c r="E13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" t="s">
-        <v>195</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -3383,16 +3455,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
         <v>196</v>
-      </c>
-      <c r="E14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" t="s">
-        <v>197</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
@@ -3406,16 +3478,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
         <v>198</v>
-      </c>
-      <c r="E15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" t="s">
-        <v>199</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -3429,16 +3501,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
         <v>200</v>
-      </c>
-      <c r="E16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" t="s">
-        <v>201</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -3452,16 +3524,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
         <v>202</v>
-      </c>
-      <c r="E17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" t="s">
-        <v>203</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -3475,16 +3547,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
         <v>204</v>
-      </c>
-      <c r="E18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" t="s">
-        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -3498,16 +3570,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
         <v>206</v>
-      </c>
-      <c r="E19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -3521,16 +3593,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
         <v>208</v>
-      </c>
-      <c r="E20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -3544,16 +3616,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
         <v>210</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
-        <v>211</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -3567,16 +3639,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" t="s">
         <v>212</v>
-      </c>
-      <c r="E22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" t="s">
-        <v>213</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -3590,16 +3662,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" t="s">
         <v>214</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" t="s">
-        <v>215</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -3613,16 +3685,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
         <v>216</v>
-      </c>
-      <c r="E24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" t="s">
-        <v>217</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -3636,16 +3708,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" t="s">
         <v>218</v>
-      </c>
-      <c r="E25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" t="s">
-        <v>219</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -3659,16 +3731,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" t="s">
         <v>220</v>
-      </c>
-      <c r="E26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" t="s">
-        <v>221</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
@@ -3682,16 +3754,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" t="s">
         <v>222</v>
-      </c>
-      <c r="E27" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" t="s">
-        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>38</v>
@@ -3705,16 +3777,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
-      </c>
-      <c r="E28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" t="s">
-        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3728,16 +3800,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" t="s">
         <v>226</v>
-      </c>
-      <c r="E29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" t="s">
-        <v>227</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3751,16 +3823,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
         <v>228</v>
-      </c>
-      <c r="E30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" t="s">
-        <v>229</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -3774,16 +3846,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
         <v>230</v>
-      </c>
-      <c r="E31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" t="s">
-        <v>231</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3797,16 +3869,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3820,16 +3892,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3840,16 +3912,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" t="s">
         <v>235</v>
-      </c>
-      <c r="E34" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" t="s">
-        <v>236</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -3863,16 +3935,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
         <v>237</v>
-      </c>
-      <c r="E35" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" t="s">
-        <v>238</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3886,16 +3958,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3909,16 +3981,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -3932,16 +4004,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -3955,16 +4027,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" t="s">
         <v>242</v>
-      </c>
-      <c r="E39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" t="s">
-        <v>243</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3978,16 +4050,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4001,16 +4073,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4024,16 +4096,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4047,16 +4119,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" t="s">
         <v>247</v>
-      </c>
-      <c r="E43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>248</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4070,16 +4142,16 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D44" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
         <v>249</v>
-      </c>
-      <c r="E44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" t="s">
-        <v>250</v>
       </c>
       <c r="G44" t="s">
         <v>38</v>
@@ -4093,16 +4165,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
         <v>251</v>
-      </c>
-      <c r="E45" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" t="s">
-        <v>252</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -4116,16 +4188,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4139,16 +4211,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D47" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" t="s">
         <v>247</v>
-      </c>
-      <c r="E47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" t="s">
-        <v>248</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4162,85 +4234,85 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" t="s">
         <v>255</v>
-      </c>
-      <c r="E48" t="s">
-        <v>256</v>
       </c>
       <c r="F48">
         <v>11110814006</v>
       </c>
       <c r="G48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
         <v>257</v>
-      </c>
-      <c r="H48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49">
         <v>11110814008</v>
       </c>
       <c r="G49" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" t="s">
         <v>257</v>
-      </c>
-      <c r="H49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50">
         <v>11110814010</v>
       </c>
       <c r="G50" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" t="s">
         <v>257</v>
-      </c>
-      <c r="H50" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -4254,16 +4326,16 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -4277,16 +4349,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -4300,16 +4372,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -4323,16 +4395,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G55" t="s">
         <v>38</v>
@@ -4346,16 +4418,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
         <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G56" t="s">
         <v>38</v>
@@ -4369,16 +4441,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -4392,16 +4464,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -4415,16 +4487,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -4438,16 +4510,16 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -4461,16 +4533,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -4484,16 +4556,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -4507,16 +4579,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -4530,16 +4602,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -4553,16 +4625,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D65" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" t="s">
         <v>277</v>
-      </c>
-      <c r="E65" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" t="s">
-        <v>278</v>
       </c>
       <c r="G65" t="s">
         <v>38</v>
@@ -4576,16 +4648,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -4599,16 +4671,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -4622,16 +4694,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -4645,19 +4717,19 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D69" t="s">
+        <v>281</v>
+      </c>
+      <c r="E69" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" t="s">
         <v>282</v>
-      </c>
-      <c r="E69" t="s">
-        <v>177</v>
-      </c>
-      <c r="F69" t="s">
-        <v>283</v>
       </c>
       <c r="G69" t="s">
         <v>38</v>
@@ -4671,19 +4743,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -4697,19 +4769,19 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G71" t="s">
         <v>38</v>
@@ -4723,19 +4795,19 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E72" t="s">
         <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G72" t="s">
         <v>38</v>
@@ -4749,10 +4821,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
         <v>43</v>
@@ -4766,10 +4838,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
         <v>43</v>
@@ -4783,13 +4855,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -4859,7 +4931,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -4879,13 +4951,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>2004202</v>
@@ -4899,13 +4971,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4">
         <v>2004197</v>
@@ -4919,13 +4991,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5">
         <v>24676</v>
@@ -4942,10 +5014,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -4965,10 +5037,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -4979,13 +5051,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -4993,16 +5065,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
         <v>299</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>300</v>
-      </c>
-      <c r="F9" t="s">
-        <v>301</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
@@ -5080,7 +5152,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -5100,16 +5172,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" t="s">
         <v>306</v>
-      </c>
-      <c r="E3" t="s">
-        <v>307</v>
       </c>
       <c r="F3">
         <v>2031079</v>
@@ -5123,10 +5195,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -5146,16 +5218,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
         <v>304</v>
       </c>
-      <c r="D5" t="s">
-        <v>305</v>
-      </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -5164,24 +5236,24 @@
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
         <v>310</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>311</v>
-      </c>
-      <c r="G6" t="s">
-        <v>312</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
@@ -5189,16 +5261,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
         <v>313</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>314</v>
-      </c>
-      <c r="F7" t="s">
-        <v>315</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -5212,16 +5284,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
         <v>316</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
-      </c>
-      <c r="F8" t="s">
-        <v>318</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -5232,16 +5304,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" t="s">
         <v>319</v>
-      </c>
-      <c r="E9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" t="s">
-        <v>320</v>
       </c>
       <c r="G9" t="s">
         <v>110</v>
@@ -5252,16 +5324,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" t="s">
         <v>321</v>
-      </c>
-      <c r="E10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" t="s">
-        <v>322</v>
       </c>
       <c r="G10" t="s">
         <v>110</v>
@@ -5272,16 +5344,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" t="s">
         <v>321</v>
-      </c>
-      <c r="E11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" t="s">
-        <v>322</v>
       </c>
       <c r="G11" t="s">
         <v>110</v>
@@ -5292,16 +5364,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" t="s">
         <v>323</v>
-      </c>
-      <c r="E12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" t="s">
-        <v>324</v>
       </c>
       <c r="G12" t="s">
         <v>110</v>
@@ -5312,16 +5384,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
         <v>325</v>
-      </c>
-      <c r="E13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" t="s">
-        <v>326</v>
       </c>
       <c r="G13" t="s">
         <v>110</v>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183E880-22AA-4A30-B154-603EE44562CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02D7BFE-2F01-4D3A-9C26-B1550277C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="431">
   <si>
     <t>Subcategory</t>
   </si>
@@ -1838,9 +1838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,9 +1972,6 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
@@ -1994,9 +1991,6 @@
       </c>
       <c r="C9">
         <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2739,9 +2733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4882,7 +4876,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02D7BFE-2F01-4D3A-9C26-B1550277C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C3B42D-0EFB-492E-A7D6-60337843A087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
     <sheet name="Кабель" sheetId="2" r:id="rId2"/>
     <sheet name="Труба" sheetId="10" r:id="rId3"/>
-    <sheet name="Прокладка" sheetId="3" r:id="rId4"/>
-    <sheet name="Коробки" sheetId="4" r:id="rId5"/>
-    <sheet name="Метизы" sheetId="5" r:id="rId6"/>
-    <sheet name="Метизы 2" sheetId="6" r:id="rId7"/>
-    <sheet name="Прочее" sheetId="7" r:id="rId8"/>
-    <sheet name="Светильники" sheetId="8" r:id="rId9"/>
+    <sheet name="Профиль" sheetId="12" r:id="rId4"/>
+    <sheet name="Крепеж" sheetId="13" r:id="rId5"/>
+    <sheet name="Прокладка" sheetId="3" r:id="rId6"/>
+    <sheet name="Коробки" sheetId="4" r:id="rId7"/>
+    <sheet name="Метизы" sheetId="5" r:id="rId8"/>
+    <sheet name="Метизы 2" sheetId="6" r:id="rId9"/>
+    <sheet name="Прочее" sheetId="7" r:id="rId10"/>
+    <sheet name="Светильники" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="443">
   <si>
     <t>Subcategory</t>
   </si>
@@ -67,9 +69,6 @@
     <t>Category priority</t>
   </si>
   <si>
-    <t>Is default category</t>
-  </si>
-  <si>
     <t>прочее</t>
   </si>
   <si>
@@ -475,13 +474,7 @@
     <t>BHM4141</t>
   </si>
   <si>
-    <t>П-образный профиль PSM</t>
-  </si>
-  <si>
     <t>29х50, 3м, толщ. 2.5мм</t>
-  </si>
-  <si>
-    <t>BPM2930</t>
   </si>
   <si>
     <t>Уголок одиночный удлиненный 92 мм, горячеоцинкованный</t>
@@ -1349,13 +1342,58 @@
     <t>муфта гибкая труба-труба 25</t>
   </si>
   <si>
-    <t>профиль 29х50 горячеоцинкованный</t>
-  </si>
-  <si>
     <t>П-образный профиль PSM, горячеоцинкованный</t>
   </si>
   <si>
     <t>BPM2930HDZ</t>
+  </si>
+  <si>
+    <t>профиль</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>крепежи</t>
+  </si>
+  <si>
+    <t>Крепеж</t>
+  </si>
+  <si>
+    <t>Кронштейн К1</t>
+  </si>
+  <si>
+    <t>Кронштейн К2</t>
+  </si>
+  <si>
+    <t>Кронштейн К3</t>
+  </si>
+  <si>
+    <t>Кронштейн К4</t>
+  </si>
+  <si>
+    <t>Кронштейн К5</t>
+  </si>
+  <si>
+    <t>Кронштейн К6</t>
+  </si>
+  <si>
+    <t>кронштейн к1</t>
+  </si>
+  <si>
+    <t>кронштейн к2</t>
+  </si>
+  <si>
+    <t>кронштейн к3</t>
+  </si>
+  <si>
+    <t>кронштейн к4</t>
+  </si>
+  <si>
+    <t>кронштейн к5</t>
+  </si>
+  <si>
+    <t>кронштейн к6</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1452,7 +1490,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1836,11 +1873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1892,7 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1877,137 +1914,581 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+    <row r="26" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>2031400</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3">
+        <v>2031079</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>2031400</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>111</v>
+      </c>
+      <c r="G2">
+        <v>111</v>
+      </c>
+      <c r="H2">
+        <v>111</v>
+      </c>
+      <c r="I2">
+        <v>111</v>
+      </c>
+      <c r="J2">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2038,59 +2519,59 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2126,54 +2607,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2">
         <v>63925</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4.4999999999999998E-2</v>
@@ -2181,108 +2662,108 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" t="s">
-        <v>117</v>
-      </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>113</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>50125</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>50132</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>50325</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>8.1000000000000003E-2</v>
@@ -2290,45 +2771,45 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>50332</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
       </c>
       <c r="I9">
         <v>0.29299999999999998</v>
@@ -2341,12 +2822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983A7FE-3BC0-429F-9698-EDB6A8DE3D20}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,362 +2848,211 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>418</v>
       </c>
-      <c r="C3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5">
-        <v>37240</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6">
-        <v>35510</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7">
-        <v>35010</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>420</v>
+      <c r="A9" t="s">
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17">
-        <v>58026</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17">
-        <v>1.7000000000000001E-2</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J9">
+    <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2730,12 +3060,485 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D5F983-AC44-4E4D-BCDD-23216F1CD835}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>37240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>35510</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>35010</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>58026</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,82 +3559,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
         <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
       </c>
       <c r="F4">
         <v>53700</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>7.0000000000000007E-2</v>
@@ -2839,22 +3642,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
         <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
       </c>
       <c r="F5">
         <v>65303</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>0.79</v>
@@ -2862,22 +3665,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
       </c>
       <c r="F6">
         <v>53700</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>7.0000000000000007E-2</v>
@@ -2885,249 +3688,114 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>171</v>
-      </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
         <v>143</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>144</v>
       </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10">
-        <v>1.67</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" t="s">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>426</v>
-      </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,51 +3815,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>2E-3</v>
@@ -3199,22 +3867,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>3.0000000000000001E-3</v>
@@ -3222,22 +3890,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4.0000000000000001E-3</v>
@@ -3245,22 +3913,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>8.0000000000000002E-3</v>
@@ -3268,22 +3936,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>1.2999999999999999E-2</v>
@@ -3291,22 +3959,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>1.2E-2</v>
@@ -3314,22 +3982,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4.3999999999999997E-2</v>
@@ -3337,22 +4005,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>2E-3</v>
@@ -3360,22 +4028,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4.0000000000000001E-3</v>
@@ -3383,42 +4051,42 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="4">
         <v>7633</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>6.0000000000000001E-3</v>
@@ -3426,22 +4094,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>7.0000000000000001E-3</v>
@@ -3449,22 +4117,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>8.9999999999999993E-3</v>
@@ -3472,22 +4140,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -3495,22 +4163,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>1.2999999999999999E-2</v>
@@ -3518,22 +4186,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>1.4E-2</v>
@@ -3541,22 +4209,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>1.7999999999999999E-2</v>
@@ -3564,22 +4232,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>0.02</v>
@@ -3587,22 +4255,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>2.7E-2</v>
@@ -3610,22 +4278,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>0.03</v>
@@ -3633,22 +4301,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>2.4E-2</v>
@@ -3656,22 +4324,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>0.03</v>
@@ -3679,22 +4347,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>3.5999999999999997E-2</v>
@@ -3702,22 +4370,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4.2000000000000003E-2</v>
@@ -3725,22 +4393,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>4.5999999999999999E-2</v>
@@ -3748,22 +4416,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>0.05</v>
@@ -3771,22 +4439,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>5.5E-2</v>
@@ -3794,22 +4462,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>6.6000000000000003E-2</v>
@@ -3817,22 +4485,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>6.5000000000000002E-2</v>
@@ -3840,22 +4508,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>7.1999999999999995E-2</v>
@@ -3863,22 +4531,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <v>7.5999999999999998E-2</v>
@@ -3886,42 +4554,42 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34">
         <v>1E-3</v>
@@ -3929,22 +4597,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35">
         <v>2E-3</v>
@@ -3952,22 +4620,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <v>5.0000000000000001E-3</v>
@@ -3975,22 +4643,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
         <v>236</v>
       </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" t="s">
-        <v>239</v>
-      </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37">
         <v>0.01</v>
@@ -3998,22 +4666,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38">
         <v>1.6E-2</v>
@@ -4021,22 +4689,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>2E-3</v>
@@ -4044,22 +4712,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40">
         <v>5.0000000000000001E-3</v>
@@ -4067,22 +4735,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
         <v>241</v>
       </c>
-      <c r="E41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" t="s">
-        <v>244</v>
-      </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41">
         <v>1.0999999999999999E-2</v>
@@ -4090,22 +4758,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42">
         <v>1.4999999999999999E-2</v>
@@ -4113,22 +4781,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43">
         <v>1.2E-2</v>
@@ -4136,22 +4804,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44">
         <v>1.7999999999999999E-2</v>
@@ -4159,22 +4827,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45">
         <v>4.1000000000000002E-2</v>
@@ -4182,22 +4850,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46">
         <v>6.5000000000000002E-2</v>
@@ -4205,22 +4873,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I47">
         <v>1.2E-2</v>
@@ -4228,91 +4896,91 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F48">
         <v>11110814006</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F49">
         <v>11110814008</v>
       </c>
       <c r="G49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F50">
         <v>11110814010</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I51">
         <v>8.0000000000000004E-4</v>
@@ -4320,22 +4988,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F52" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52">
         <v>1E-3</v>
@@ -4343,22 +5011,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
         <v>260</v>
       </c>
-      <c r="E53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" t="s">
-        <v>263</v>
-      </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53">
         <v>3.0000000000000001E-3</v>
@@ -4366,22 +5034,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54">
         <v>6.0000000000000001E-3</v>
@@ -4389,22 +5057,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55">
         <v>1.0999999999999999E-2</v>
@@ -4412,22 +5080,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I56">
         <v>2.1999999999999999E-2</v>
@@ -4435,22 +5103,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I57">
         <v>2.8000000000000001E-2</v>
@@ -4458,22 +5126,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58">
         <v>1E-3</v>
@@ -4481,22 +5149,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59">
         <v>1E-3</v>
@@ -4504,22 +5172,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D60" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" t="s">
         <v>268</v>
       </c>
-      <c r="E60" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" t="s">
-        <v>271</v>
-      </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60">
         <v>1E-3</v>
@@ -4527,22 +5195,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I61">
         <v>2E-3</v>
@@ -4550,22 +5218,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I62">
         <v>4.0000000000000001E-3</v>
@@ -4573,22 +5241,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I63">
         <v>6.0000000000000001E-3</v>
@@ -4596,22 +5264,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64">
         <v>8.0000000000000002E-3</v>
@@ -4619,22 +5287,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65">
         <v>1E-3</v>
@@ -4642,22 +5310,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I66">
         <v>1E-3</v>
@@ -4665,22 +5333,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D67" t="s">
+        <v>273</v>
+      </c>
+      <c r="E67" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" t="s">
         <v>276</v>
       </c>
-      <c r="E67" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67" t="s">
-        <v>279</v>
-      </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I67">
         <v>2E-3</v>
@@ -4688,22 +5356,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68">
         <v>4.0000000000000001E-3</v>
@@ -4711,25 +5379,25 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I69">
         <v>7.5999999999999998E-2</v>
@@ -4737,25 +5405,25 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D70" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I70">
         <v>0.1575</v>
@@ -4763,25 +5431,25 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" t="s">
         <v>281</v>
       </c>
-      <c r="E71" t="s">
-        <v>180</v>
-      </c>
-      <c r="F71" t="s">
-        <v>284</v>
-      </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I71">
         <v>0.23</v>
@@ -4789,25 +5457,25 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I72">
         <v>0.35</v>
@@ -4815,53 +5483,53 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +5538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -4896,111 +5564,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
       </c>
       <c r="F2">
         <v>2004209</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3">
         <v>2004202</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F4">
         <v>2004197</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F5">
         <v>24676</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>2.8999999999999998E-3</v>
@@ -5008,22 +5676,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>6551</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4.0000000000000001E-3</v>
@@ -5031,50 +5699,50 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>6.0000000000000001E-3</v>
@@ -5084,432 +5752,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J81"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2">
-        <v>2031400</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3">
-        <v>2031079</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2031400</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F9" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>111</v>
-      </c>
-      <c r="G2">
-        <v>111</v>
-      </c>
-      <c r="H2">
-        <v>111</v>
-      </c>
-      <c r="I2">
-        <v>111</v>
-      </c>
-      <c r="J2">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C3B42D-0EFB-492E-A7D6-60337843A087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB01B0-CFE9-4B77-A341-381D75050E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Метизы 2" sheetId="6" r:id="rId9"/>
     <sheet name="Прочее" sheetId="7" r:id="rId10"/>
     <sheet name="Светильники" sheetId="8" r:id="rId11"/>
+    <sheet name="Блоки питания" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="465">
   <si>
     <t>Subcategory</t>
   </si>
@@ -198,9 +199,6 @@
     <t>упак.</t>
   </si>
   <si>
-    <t>Светильник</t>
-  </si>
-  <si>
     <t>Есть множитель</t>
   </si>
   <si>
@@ -211,9 +209,6 @@
   </si>
   <si>
     <t>химический анкер</t>
-  </si>
-  <si>
-    <t>светильник</t>
   </si>
   <si>
     <t>Лоток неперфорированный 50х50</t>
@@ -1394,6 +1389,78 @@
   </si>
   <si>
     <t>кронштейн к6</t>
+  </si>
+  <si>
+    <t>бп</t>
+  </si>
+  <si>
+    <t>Блоки питания</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 120Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>HLG-120H-24</t>
+  </si>
+  <si>
+    <t>MeanWell</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 60Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 150Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 185Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 240Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>HLG-60H-24</t>
+  </si>
+  <si>
+    <t>HLG-150H-24</t>
+  </si>
+  <si>
+    <t>HLG-185H-24</t>
+  </si>
+  <si>
+    <t>HLG-240H-24</t>
+  </si>
+  <si>
+    <t>бп60</t>
+  </si>
+  <si>
+    <t>бп120</t>
+  </si>
+  <si>
+    <t>бп150</t>
+  </si>
+  <si>
+    <t>бп185</t>
+  </si>
+  <si>
+    <t>бп240</t>
+  </si>
+  <si>
+    <t>ввг 2х2.5</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг(А)-LS 2х2.5мм2</t>
+  </si>
+  <si>
+    <t>Колпачки для герметизации разъёмов последних светильников</t>
+  </si>
+  <si>
+    <t>колпачек для герметизации разъема</t>
+  </si>
+  <si>
+    <t>светильник</t>
+  </si>
+  <si>
+    <t>Светильник</t>
   </si>
 </sst>
 </file>
@@ -1478,9 +1545,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1873,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,13 +1983,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1937,46 +2003,46 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1984,35 +2050,35 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,7 +2089,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -2055,8 +2121,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2075,7 +2149,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="63.42578125" customWidth="1"/>
@@ -2088,43 +2162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
+      <c r="A2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -2143,17 +2217,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>323</v>
+      <c r="A3" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
         <v>300</v>
       </c>
-      <c r="D3" t="s">
-        <v>302</v>
-      </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F3">
         <v>2031079</v>
@@ -2166,11 +2240,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>324</v>
+      <c r="A4" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -2189,17 +2263,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>325</v>
+      <c r="A5" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2208,41 +2282,41 @@
         <v>34</v>
       </c>
       <c r="J5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>306</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" t="s">
         <v>307</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E7" t="s">
         <v>308</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>309</v>
-      </c>
-      <c r="E7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" t="s">
-        <v>311</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -2255,147 +2329,147 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>315</v>
       </c>
-      <c r="E9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" t="s">
         <v>316</v>
       </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>317</v>
       </c>
-      <c r="E10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>319</v>
       </c>
-      <c r="E12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" t="s">
         <v>320</v>
       </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F13" t="s">
-        <v>322</v>
-      </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
+      <c r="A14" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
-      </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="5"/>
+      <c r="E81" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2409,7 +2483,84 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93EDBAF-190A-4B2D-B553-2FF24C899F28}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,61 +2576,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>111</v>
-      </c>
-      <c r="G2">
-        <v>111</v>
-      </c>
-      <c r="H2">
-        <v>111</v>
-      </c>
-      <c r="I2">
-        <v>111</v>
-      </c>
-      <c r="J2">
-        <v>111</v>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2742,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,63 +2759,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" t="s">
+        <v>420</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="D3" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2603,40 +2847,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>420</v>
+      <c r="A2" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2661,57 +2905,57 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
+      <c r="A3" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
-      </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>68</v>
+      <c r="A4" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>424</v>
+      <c r="A5" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -2727,14 +2971,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>63</v>
+      <c r="A6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>50132</v>
@@ -2747,11 +2991,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
+      <c r="A7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2770,14 +3014,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>64</v>
+      <c r="A8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>50332</v>
@@ -2790,26 +3034,26 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
+      <c r="A9" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
       </c>
       <c r="I9">
         <v>0.29299999999999998</v>
@@ -2844,49 +3088,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>164</v>
+      <c r="A2" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
@@ -2899,17 +3143,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>165</v>
+      <c r="A3" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -2923,16 +3167,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -2943,7 +3187,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2965,17 +3209,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>169</v>
+      <c r="A6" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -2988,17 +3232,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>412</v>
+      <c r="A7" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
         <v>155</v>
-      </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -3012,19 +3256,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -3032,16 +3276,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
         <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>151</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -3081,43 +3325,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>437</v>
+      <c r="A2" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -3127,11 +3371,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>438</v>
+      <c r="A3" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -3141,11 +3385,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>439</v>
+      <c r="A4" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="D4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -3155,11 +3399,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>440</v>
+      <c r="A5" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -3169,11 +3413,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>441</v>
+      <c r="A6" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3183,11 +3427,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>442</v>
+      <c r="A7" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -3229,103 +3473,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
+      <c r="A2" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>414</v>
+      <c r="A4" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>37240</v>
@@ -3341,14 +3585,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
+      <c r="A6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>35510</v>
@@ -3357,21 +3601,21 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
+      <c r="A7" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>35010</v>
@@ -3380,41 +3624,41 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>416</v>
+      <c r="A8" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
         <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -3424,51 +3668,51 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>65</v>
+      <c r="A10" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
+      <c r="A11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
         <v>123</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>124</v>
       </c>
-      <c r="F11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" t="s">
-        <v>126</v>
-      </c>
       <c r="H11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
+      <c r="A12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -3481,20 +3725,20 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>67</v>
+      <c r="A13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
         <v>49</v>
@@ -3502,13 +3746,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14">
         <v>58026</v>
@@ -3555,77 +3799,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>162</v>
+      <c r="A2" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
         <v>136</v>
       </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>138</v>
-      </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>159</v>
+      <c r="A4" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4">
         <v>53700</v>
@@ -3641,14 +3885,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>161</v>
+      <c r="A5" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <v>65303</v>
@@ -3664,14 +3908,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>160</v>
+      <c r="A6" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>53700</v>
@@ -3687,20 +3931,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>158</v>
+      <c r="A7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" t="s">
-        <v>130</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -3708,10 +3952,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -3721,17 +3965,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>167</v>
+      <c r="A9" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
         <v>145</v>
-      </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>147</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -3745,13 +3989,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -3765,16 +4009,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
         <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" t="s">
-        <v>137</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -3811,40 +4055,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>344</v>
+      <c r="A2" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3866,17 +4110,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>345</v>
+      <c r="A3" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -3889,17 +4133,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>346</v>
+      <c r="A4" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -3912,17 +4156,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>347</v>
+      <c r="A5" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -3935,17 +4179,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>348</v>
+      <c r="A6" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -3958,8 +4202,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>349</v>
+      <c r="A7" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -3968,7 +4212,7 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -3981,17 +4225,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>342</v>
+      <c r="A8" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -4004,17 +4248,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>343</v>
+      <c r="A9" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -4027,17 +4271,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>350</v>
+      <c r="A10" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -4050,37 +4294,37 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>351</v>
+      <c r="A11" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7633</v>
+      </c>
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" t="s">
         <v>186</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="4">
-        <v>7633</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F12" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -4093,17 +4337,17 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>353</v>
+      <c r="A13" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -4116,17 +4360,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>354</v>
+      <c r="A14" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -4139,17 +4383,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>355</v>
+      <c r="A15" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -4162,17 +4406,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>356</v>
+      <c r="A16" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -4185,17 +4429,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>357</v>
+      <c r="A17" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -4208,17 +4452,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>358</v>
+      <c r="A18" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -4231,17 +4475,17 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>359</v>
+      <c r="A19" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
@@ -4254,17 +4498,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>360</v>
+      <c r="A20" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -4277,17 +4521,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>361</v>
+      <c r="A21" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -4300,17 +4544,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>362</v>
+      <c r="A22" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -4323,17 +4567,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>363</v>
+      <c r="A23" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
@@ -4346,17 +4590,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>364</v>
+      <c r="A24" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -4369,17 +4613,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>365</v>
+      <c r="A25" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
@@ -4392,17 +4636,17 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>366</v>
+      <c r="A26" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -4415,17 +4659,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>367</v>
+      <c r="A27" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4438,17 +4682,17 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>368</v>
+      <c r="A28" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -4461,17 +4705,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>369</v>
+      <c r="A29" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
@@ -4484,17 +4728,17 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>370</v>
+      <c r="A30" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="D30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -4507,17 +4751,17 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>371</v>
+      <c r="A31" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
@@ -4530,17 +4774,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>372</v>
+      <c r="A32" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -4553,17 +4797,17 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>373</v>
+      <c r="A33" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -4573,17 +4817,17 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>374</v>
+      <c r="A34" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -4596,17 +4840,17 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>375</v>
+      <c r="A35" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
@@ -4619,17 +4863,17 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>376</v>
+      <c r="A36" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="D36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" t="s">
         <v>233</v>
-      </c>
-      <c r="E36" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" t="s">
-        <v>235</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -4642,17 +4886,17 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>377</v>
+      <c r="A37" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G37" t="s">
         <v>37</v>
@@ -4665,17 +4909,17 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>378</v>
+      <c r="A38" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E38" t="s">
         <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
         <v>37</v>
@@ -4688,17 +4932,17 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>379</v>
+      <c r="A39" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -4711,17 +4955,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>380</v>
+      <c r="A40" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="D40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s">
         <v>238</v>
-      </c>
-      <c r="E40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" t="s">
-        <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>37</v>
@@ -4734,17 +4978,17 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>381</v>
+      <c r="A41" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4757,17 +5001,17 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>382</v>
+      <c r="A42" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4780,17 +5024,17 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>383</v>
+      <c r="A43" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G43" t="s">
         <v>37</v>
@@ -4803,17 +5047,17 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>384</v>
+      <c r="A44" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
@@ -4826,17 +5070,17 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>385</v>
+      <c r="A45" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4849,17 +5093,17 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>386</v>
+      <c r="A46" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -4872,17 +5116,17 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>387</v>
+      <c r="A47" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4895,86 +5139,86 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>285</v>
+      <c r="A48" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F48">
         <v>11110814006</v>
       </c>
       <c r="G48" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" t="s">
         <v>253</v>
       </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D49" t="s">
-        <v>255</v>
-      </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F49">
         <v>11110814008</v>
       </c>
       <c r="G49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
         <v>34</v>
       </c>
       <c r="J49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" t="s">
-        <v>256</v>
-      </c>
       <c r="E50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F50">
         <v>11110814010</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H50" t="s">
         <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>388</v>
+      <c r="A51" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E51" t="s">
         <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -4987,17 +5231,17 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>389</v>
+      <c r="A52" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="D52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
         <v>257</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" t="s">
-        <v>259</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5010,17 +5254,17 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>390</v>
+      <c r="A53" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
@@ -5033,17 +5277,17 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>391</v>
+      <c r="A54" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
         <v>37</v>
@@ -5056,17 +5300,17 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>392</v>
+      <c r="A55" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5079,17 +5323,17 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>393</v>
+      <c r="A56" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E56" t="s">
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5102,17 +5346,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>394</v>
+      <c r="A57" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
         <v>37</v>
@@ -5125,17 +5369,17 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>395</v>
+      <c r="A58" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5148,17 +5392,17 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>396</v>
+      <c r="A59" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" t="s">
         <v>265</v>
-      </c>
-      <c r="E59" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" t="s">
-        <v>267</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
@@ -5171,17 +5415,17 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>397</v>
+      <c r="A60" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="D60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5194,17 +5438,17 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>398</v>
+      <c r="A61" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5217,17 +5461,17 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>399</v>
+      <c r="A62" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
@@ -5240,17 +5484,17 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>400</v>
+      <c r="A63" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E63" t="s">
         <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -5263,17 +5507,17 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>401</v>
+      <c r="A64" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -5286,17 +5530,17 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>402</v>
+      <c r="A65" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -5309,17 +5553,17 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>403</v>
+      <c r="A66" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="D66" t="s">
+        <v>271</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" t="s">
         <v>273</v>
-      </c>
-      <c r="E66" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" t="s">
-        <v>275</v>
       </c>
       <c r="G66" t="s">
         <v>37</v>
@@ -5332,17 +5576,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>404</v>
+      <c r="A67" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G67" t="s">
         <v>37</v>
@@ -5355,17 +5599,17 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>405</v>
+      <c r="A68" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
         <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -5378,115 +5622,115 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>406</v>
+      <c r="A69" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I69">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>407</v>
+      <c r="A70" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" t="s">
         <v>278</v>
       </c>
-      <c r="E70" t="s">
-        <v>175</v>
-      </c>
-      <c r="F70" t="s">
-        <v>280</v>
-      </c>
       <c r="G70" t="s">
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I70">
         <v>0.1575</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>408</v>
+      <c r="A71" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F71" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G71" t="s">
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I71">
         <v>0.23</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>409</v>
+      <c r="A72" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
         <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G72" t="s">
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I72">
         <v>0.35</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>410</v>
+      <c r="A73" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E73" t="s">
         <v>42</v>
@@ -5499,11 +5743,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>411</v>
+      <c r="A74" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
         <v>42</v>
@@ -5516,14 +5760,14 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>288</v>
+      <c r="A75" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -5560,40 +5804,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>339</v>
+      <c r="A2" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5612,14 +5856,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>340</v>
+      <c r="A3" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>2004202</v>
@@ -5632,14 +5876,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>338</v>
+      <c r="A4" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4">
         <v>2004197</v>
@@ -5652,14 +5896,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>337</v>
+      <c r="A5" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5">
         <v>24676</v>
@@ -5675,11 +5919,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>336</v>
+      <c r="A6" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -5698,11 +5942,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>298</v>
+      <c r="A7" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -5712,31 +5956,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>341</v>
+      <c r="A8" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>299</v>
+      <c r="A9" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" t="s">
         <v>295</v>
-      </c>
-      <c r="E9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F9" t="s">
-        <v>297</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB01B0-CFE9-4B77-A341-381D75050E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224A266-78EC-4889-A32A-3791092D9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,13 @@
     <sheet name="Прочее" sheetId="7" r:id="rId10"/>
     <sheet name="Светильники" sheetId="8" r:id="rId11"/>
     <sheet name="Блоки питания" sheetId="14" r:id="rId12"/>
+    <sheet name="Щиты" sheetId="15" r:id="rId13"/>
+    <sheet name="Контакторы" sheetId="16" r:id="rId14"/>
+    <sheet name="Реле" sheetId="17" r:id="rId15"/>
+    <sheet name="Выключатели" sheetId="18" r:id="rId16"/>
+    <sheet name="Для щита" sheetId="19" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="534">
   <si>
     <t>Subcategory</t>
   </si>
@@ -1328,9 +1333,6 @@
     <t>ввг 5х2.5</t>
   </si>
   <si>
-    <t>Кабель ВВГнг(А)-LS 5х2.5мм2</t>
-  </si>
-  <si>
     <t>сальник акм20</t>
   </si>
   <si>
@@ -1448,9 +1450,6 @@
     <t>ввг 2х2.5</t>
   </si>
   <si>
-    <t>Кабель ВВГнг(А)-LS 2х2.5мм2</t>
-  </si>
-  <si>
     <t>Колпачки для герметизации разъёмов последних светильников</t>
   </si>
   <si>
@@ -1461,6 +1460,219 @@
   </si>
   <si>
     <t>Светильник</t>
+  </si>
+  <si>
+    <t>универсальный держатель с бетоном</t>
+  </si>
+  <si>
+    <t>пруток металлический д8</t>
+  </si>
+  <si>
+    <t>Пруток металлический оцинкованный</t>
+  </si>
+  <si>
+    <t>Ø8</t>
+  </si>
+  <si>
+    <t>ND1000</t>
+  </si>
+  <si>
+    <t>Универсальный держатель с бетоном</t>
+  </si>
+  <si>
+    <t>ввг 3х2.5</t>
+  </si>
+  <si>
+    <t>управление 10х1</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 5х2.5мм2</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 3х2.5мм2</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 2х2.5мм2</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS 5х1.5мм2</t>
+  </si>
+  <si>
+    <t>щит</t>
+  </si>
+  <si>
+    <t>Щиты</t>
+  </si>
+  <si>
+    <t>Щитовое оборудование</t>
+  </si>
+  <si>
+    <t>Лампа зелёная сигнальная</t>
+  </si>
+  <si>
+    <t>ЛС-47М</t>
+  </si>
+  <si>
+    <t>MLS20-230-K06</t>
+  </si>
+  <si>
+    <t>лампа зеленая</t>
+  </si>
+  <si>
+    <t>зажим наборный</t>
+  </si>
+  <si>
+    <t>YZN10-002-K03</t>
+  </si>
+  <si>
+    <t>Зажим наборный ЗНИ-2,5мм2 (JXB24А)</t>
+  </si>
+  <si>
+    <t>заглушка для кви</t>
+  </si>
+  <si>
+    <t>Заглушка для КВИ-2,5мм2</t>
+  </si>
+  <si>
+    <t>цвет серый</t>
+  </si>
+  <si>
+    <t>YZN30D-ZGL-002-K03</t>
+  </si>
+  <si>
+    <t>контактор</t>
+  </si>
+  <si>
+    <t>Контакторы</t>
+  </si>
+  <si>
+    <t>Выключатели</t>
+  </si>
+  <si>
+    <t>выключатель</t>
+  </si>
+  <si>
+    <t>реле</t>
+  </si>
+  <si>
+    <t>Реле</t>
+  </si>
+  <si>
+    <t>для щита</t>
+  </si>
+  <si>
+    <t>Для щита</t>
+  </si>
+  <si>
+    <t>Выключатель 3р 20а по умолчанию</t>
+  </si>
+  <si>
+    <t>Автоматический выключатель ВА47-60M 3Р 20А</t>
+  </si>
+  <si>
+    <t>С20А</t>
+  </si>
+  <si>
+    <t>MVA31-3-020-C</t>
+  </si>
+  <si>
+    <t>реле по умолчанию</t>
+  </si>
+  <si>
+    <t>Реле времени программируемое одноканальное</t>
+  </si>
+  <si>
+    <t>PCZ-525-1</t>
+  </si>
+  <si>
+    <t>EA02.002.011</t>
+  </si>
+  <si>
+    <t>Евро-Автоматика</t>
+  </si>
+  <si>
+    <t>контактор км25-40м</t>
+  </si>
+  <si>
+    <t>Контактор модульный КМ25-40М AC/DC IEK</t>
+  </si>
+  <si>
+    <t>25А</t>
+  </si>
+  <si>
+    <t>MKK21-25-40</t>
+  </si>
+  <si>
+    <t>TITAN 3 Корпус металлический ЩРн-72</t>
+  </si>
+  <si>
+    <t>IP31, 540х600х120мм</t>
+  </si>
+  <si>
+    <t>MKM14-N-72-31-Z</t>
+  </si>
+  <si>
+    <t>щит72 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>щит54 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>TITAN 3 Корпус металлический ЩРн-54</t>
+  </si>
+  <si>
+    <t>IP31, 540х440х120мм</t>
+  </si>
+  <si>
+    <t>MKM14-N-54-31-Z</t>
+  </si>
+  <si>
+    <t>ввг 5х1.5</t>
+  </si>
+  <si>
+    <t>ввг 3х1.5</t>
+  </si>
+  <si>
+    <t>ввг 2х1.5</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 2х1.5мм2</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 3х1.5мм2</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 5х1.5мм2</t>
+  </si>
+  <si>
+    <t>коробка промрукав</t>
+  </si>
+  <si>
+    <t>Коробка распределительная 60-0300 для прямого монтажа двухкомпонентная безгалогенная (HF) 100х100х50</t>
+  </si>
+  <si>
+    <t>IP66</t>
+  </si>
+  <si>
+    <t>60-0300</t>
+  </si>
+  <si>
+    <t>трубка термоусаживаемая</t>
+  </si>
+  <si>
+    <t>гильзы для подкл свет</t>
+  </si>
+  <si>
+    <t>ГИС-Т 1,5</t>
+  </si>
+  <si>
+    <t>труба вгп 25</t>
+  </si>
+  <si>
+    <t>труба вгп 32</t>
+  </si>
+  <si>
+    <t>Труба ВГП стальная</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1540,12 +1752,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1556,6 +1779,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1939,11 +2163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,10 +2249,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" t="s">
         <v>425</v>
-      </c>
-      <c r="B5" t="s">
-        <v>426</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2036,10 +2260,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" t="s">
         <v>427</v>
-      </c>
-      <c r="B6" t="s">
-        <v>428</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2098,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2118,18 +2342,82 @@
         <v>23</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" t="s">
         <v>441</v>
-      </c>
-      <c r="B12" t="s">
-        <v>442</v>
       </c>
       <c r="C12">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" t="s">
+        <v>477</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2432,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,6 +2620,9 @@
       <c r="A8" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
       <c r="D8" t="s">
         <v>310</v>
       </c>
@@ -2352,6 +2643,9 @@
       <c r="A9" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
       <c r="D9" t="s">
         <v>313</v>
       </c>
@@ -2372,6 +2666,9 @@
       <c r="A10" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
       <c r="D10" t="s">
         <v>315</v>
       </c>
@@ -2392,6 +2689,9 @@
       <c r="A11" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
       <c r="D11" t="s">
         <v>315</v>
       </c>
@@ -2412,6 +2712,9 @@
       <c r="A12" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="C12" t="s">
+        <v>298</v>
+      </c>
       <c r="D12" t="s">
         <v>317</v>
       </c>
@@ -2432,6 +2735,9 @@
       <c r="A13" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
       <c r="D13" t="s">
         <v>319</v>
       </c>
@@ -2452,6 +2758,9 @@
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C14" t="s">
+        <v>298</v>
+      </c>
       <c r="D14" t="s">
         <v>117</v>
       </c>
@@ -2466,6 +2775,49 @@
       </c>
       <c r="H14" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>530</v>
+      </c>
+      <c r="F16">
+        <v>59122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,10 +2884,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -2560,7 +2912,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,16 +2961,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -2626,16 +2978,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" t="s">
         <v>443</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>444</v>
-      </c>
-      <c r="G3" t="s">
-        <v>445</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -2643,16 +2995,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -2660,16 +3012,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -2677,16 +3029,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -2711,13 +3063,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -2736,13 +3088,459 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045BD59-0024-4A6A-A7D6-870EF5E925B3}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>8.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F8C94A-689E-45A4-9A72-ED4027D00F33}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123510D3-4F1D-44BA-B980-E17E90841981}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13321989-F33A-4743-8E00-B46382CEAF8E}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4D59C3-F402-4EA4-B896-CC45A59ABA14}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +3593,7 @@
         <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -2806,15 +3604,85 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2826,11 +3694,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F851F222-C619-4439-8BA5-14C5581D8026}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,7 +3820,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -3057,6 +3925,46 @@
       </c>
       <c r="I9">
         <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3147,13 +4055,13 @@
         <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -3309,7 +4217,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,10 +4266,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -3372,10 +4280,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -3386,10 +4294,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -3400,10 +4308,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -3414,10 +4322,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3428,10 +4336,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -3452,11 +4360,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,6 +4559,9 @@
       <c r="A9" s="1" t="s">
         <v>415</v>
       </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
       <c r="D9" t="s">
         <v>98</v>
       </c>
@@ -3765,6 +4676,43 @@
       </c>
       <c r="I14">
         <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15" t="s">
+        <v>468</v>
+      </c>
+      <c r="F15" t="s">
+        <v>467</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3778,11 +4726,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,7 +4957,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D11" t="s">
         <v>133</v>
@@ -4021,6 +4969,26 @@
         <v>135</v>
       </c>
       <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F12" t="s">
+        <v>527</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224A266-78EC-4889-A32A-3791092D9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6AC8D3-479C-40AC-AD8B-AA12E26942A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Выключатели" sheetId="18" r:id="rId16"/>
     <sheet name="Для щита" sheetId="19" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -985,15 +985,6 @@
     <t>Обработка коробок 380В</t>
   </si>
   <si>
-    <t>Терморасширяющаяся противопожарная пена</t>
-  </si>
-  <si>
-    <t>HILTI CP 660, 315мл</t>
-  </si>
-  <si>
-    <t>HILTI</t>
-  </si>
-  <si>
     <t>Гильза соединительная изолированная кв.мм (ГСИ)</t>
   </si>
   <si>
@@ -1673,6 +1664,15 @@
   </si>
   <si>
     <t>Труба ВГП стальная</t>
+  </si>
+  <si>
+    <t>Огнезащитный терморасширяющийся герметик</t>
+  </si>
+  <si>
+    <t>ОГНЕЗА ГТ, 310 мл</t>
+  </si>
+  <si>
+    <t>ОГНЕЗА</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1779,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2358,19 +2358,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2430,9 +2430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
         <v>298</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>298</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>298</v>
@@ -2575,19 +2575,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>531</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>532</v>
+      </c>
+      <c r="F6">
+        <v>105038</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>533</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -2595,16 +2598,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -2618,19 +2621,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
         <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
         <v>107</v>
@@ -2641,19 +2644,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
         <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" t="s">
         <v>311</v>
-      </c>
-      <c r="F9" t="s">
-        <v>314</v>
       </c>
       <c r="G9" t="s">
         <v>107</v>
@@ -2664,19 +2667,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
         <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G10" t="s">
         <v>107</v>
@@ -2687,19 +2690,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
         <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G11" t="s">
         <v>107</v>
@@ -2710,19 +2713,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
         <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
         <v>107</v>
@@ -2733,19 +2736,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
         <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G13" t="s">
         <v>107</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C15" t="s">
         <v>298</v>
@@ -2802,13 +2805,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D16" t="s">
         <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F16">
         <v>59122</v>
@@ -2884,10 +2887,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -2961,16 +2964,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -2978,16 +2981,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -2995,16 +2998,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -3012,16 +3015,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -3029,16 +3032,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -3063,13 +3066,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -3144,16 +3147,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -3167,16 +3170,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" t="s">
         <v>514</v>
-      </c>
-      <c r="D3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F3" t="s">
-        <v>517</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
@@ -3245,16 +3248,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" t="s">
         <v>506</v>
-      </c>
-      <c r="D2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F2" t="s">
-        <v>509</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -3320,19 +3323,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
         <v>501</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" t="s">
-        <v>505</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3395,16 +3398,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2" t="s">
         <v>497</v>
-      </c>
-      <c r="D2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" t="s">
-        <v>500</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -3468,19 +3471,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -3491,16 +3494,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" t="s">
         <v>484</v>
       </c>
-      <c r="E3" t="s">
-        <v>487</v>
-      </c>
       <c r="F3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
@@ -3511,16 +3514,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" t="s">
         <v>485</v>
-      </c>
-      <c r="D4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F4" t="s">
-        <v>488</v>
       </c>
       <c r="G4" t="s">
         <v>107</v>
@@ -3590,10 +3593,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -3604,10 +3607,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" t="s">
         <v>469</v>
-      </c>
-      <c r="D3" t="s">
-        <v>472</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -3618,10 +3621,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -3646,10 +3649,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" t="s">
         <v>519</v>
-      </c>
-      <c r="D6" t="s">
-        <v>522</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3660,10 +3663,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -3674,10 +3677,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -3696,7 +3699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F851F222-C619-4439-8BA5-14C5581D8026}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3820,7 +3823,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -3929,13 +3932,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C10" t="s">
         <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -3949,13 +3952,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C11" t="s">
         <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -4055,13 +4058,13 @@
         <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -4141,7 +4144,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D7" t="s">
         <v>153</v>
@@ -4164,7 +4167,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -4184,7 +4187,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
         <v>147</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -4280,10 +4283,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -4294,10 +4297,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -4308,10 +4311,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -4336,10 +4339,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -4431,7 +4434,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
         <v>298</v>
@@ -4454,7 +4457,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D4" t="s">
         <v>115</v>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -4557,7 +4560,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
         <v>298</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D14" t="s">
         <v>84</v>
@@ -4680,13 +4683,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -4697,16 +4700,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C16" t="s">
         <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E16" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -4957,7 +4960,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
         <v>133</v>
@@ -4974,16 +4977,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F12" t="s">
         <v>524</v>
-      </c>
-      <c r="D12" t="s">
-        <v>525</v>
-      </c>
-      <c r="E12" t="s">
-        <v>526</v>
-      </c>
-      <c r="F12" t="s">
-        <v>527</v>
       </c>
       <c r="G12" t="s">
         <v>112</v>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5079,7 +5082,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -5102,7 +5105,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -5125,7 +5128,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -5148,7 +5151,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -5171,7 +5174,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5194,7 +5197,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -5217,7 +5220,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
         <v>180</v>
@@ -5240,7 +5243,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
         <v>182</v>
@@ -5263,7 +5266,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
         <v>184</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
         <v>186</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
         <v>188</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
         <v>190</v>
@@ -5352,7 +5355,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
         <v>192</v>
@@ -5375,7 +5378,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
         <v>194</v>
@@ -5398,7 +5401,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D17" t="s">
         <v>196</v>
@@ -5421,7 +5424,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D18" t="s">
         <v>198</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
         <v>200</v>
@@ -5467,7 +5470,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
         <v>202</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
         <v>204</v>
@@ -5513,7 +5516,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D22" t="s">
         <v>206</v>
@@ -5536,7 +5539,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
         <v>208</v>
@@ -5559,7 +5562,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
         <v>210</v>
@@ -5582,7 +5585,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
         <v>212</v>
@@ -5605,7 +5608,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D26" t="s">
         <v>214</v>
@@ -5628,7 +5631,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D27" t="s">
         <v>216</v>
@@ -5651,7 +5654,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D28" t="s">
         <v>218</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
         <v>220</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D30" t="s">
         <v>222</v>
@@ -5720,7 +5723,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D31" t="s">
         <v>224</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D32" t="s">
         <v>226</v>
@@ -5766,7 +5769,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D33" t="s">
         <v>168</v>
@@ -5786,7 +5789,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D34" t="s">
         <v>229</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D35" t="s">
         <v>231</v>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D36" t="s">
         <v>231</v>
@@ -5855,7 +5858,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D37" t="s">
         <v>231</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D38" t="s">
         <v>231</v>
@@ -5901,7 +5904,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5924,7 +5927,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
         <v>236</v>
@@ -5947,7 +5950,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
         <v>236</v>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
         <v>236</v>
@@ -5993,7 +5996,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
         <v>241</v>
@@ -6016,7 +6019,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D44" t="s">
         <v>243</v>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D45" t="s">
         <v>245</v>
@@ -6062,7 +6065,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D46" t="s">
         <v>247</v>
@@ -6085,7 +6088,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
         <v>241</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D51" t="s">
         <v>255</v>
@@ -6200,7 +6203,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D52" t="s">
         <v>255</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D53" t="s">
         <v>255</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D54" t="s">
         <v>255</v>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D55" t="s">
         <v>255</v>
@@ -6292,7 +6295,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D56" t="s">
         <v>255</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D57" t="s">
         <v>255</v>
@@ -6338,7 +6341,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D58" t="s">
         <v>263</v>
@@ -6361,7 +6364,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D59" t="s">
         <v>263</v>
@@ -6384,7 +6387,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D60" t="s">
         <v>263</v>
@@ -6407,7 +6410,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D61" t="s">
         <v>263</v>
@@ -6430,7 +6433,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D62" t="s">
         <v>263</v>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D63" t="s">
         <v>263</v>
@@ -6476,7 +6479,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D64" t="s">
         <v>263</v>
@@ -6499,7 +6502,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D65" t="s">
         <v>271</v>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D66" t="s">
         <v>271</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D67" t="s">
         <v>271</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D68" t="s">
         <v>271</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C69" t="s">
         <v>298</v>
@@ -6617,7 +6620,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C70" t="s">
         <v>298</v>
@@ -6643,7 +6646,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C71" t="s">
         <v>298</v>
@@ -6669,7 +6672,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C72" t="s">
         <v>298</v>
@@ -6695,7 +6698,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D73" t="s">
         <v>281</v>
@@ -6712,7 +6715,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D74" t="s">
         <v>281</v>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -6825,7 +6828,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
         <v>288</v>
@@ -6845,7 +6848,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
         <v>289</v>
@@ -6865,7 +6868,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
         <v>290</v>
@@ -6888,7 +6891,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
         <v>291</v>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
         <v>287</v>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6AC8D3-479C-40AC-AD8B-AA12E26942A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF9470C-54A4-4EED-8E16-E5E443BA5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="931" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
     <sheet name="Кабель" sheetId="2" r:id="rId2"/>
     <sheet name="Труба" sheetId="10" r:id="rId3"/>
-    <sheet name="Профиль" sheetId="12" r:id="rId4"/>
-    <sheet name="Крепеж" sheetId="13" r:id="rId5"/>
-    <sheet name="Прокладка" sheetId="3" r:id="rId6"/>
-    <sheet name="Коробки" sheetId="4" r:id="rId7"/>
-    <sheet name="Метизы" sheetId="5" r:id="rId8"/>
-    <sheet name="Метизы 2" sheetId="6" r:id="rId9"/>
-    <sheet name="Прочее" sheetId="7" r:id="rId10"/>
-    <sheet name="Светильники" sheetId="8" r:id="rId11"/>
-    <sheet name="Блоки питания" sheetId="14" r:id="rId12"/>
-    <sheet name="Щиты" sheetId="15" r:id="rId13"/>
-    <sheet name="Контакторы" sheetId="16" r:id="rId14"/>
-    <sheet name="Реле" sheetId="17" r:id="rId15"/>
-    <sheet name="Выключатели" sheetId="18" r:id="rId16"/>
-    <sheet name="Для щита" sheetId="19" r:id="rId17"/>
+    <sheet name="Коробки" sheetId="4" r:id="rId4"/>
+    <sheet name="Лоток" sheetId="21" r:id="rId5"/>
+    <sheet name="Профиль" sheetId="12" r:id="rId6"/>
+    <sheet name="Крепеж" sheetId="13" r:id="rId7"/>
+    <sheet name="Прокладка" sheetId="3" r:id="rId8"/>
+    <sheet name="Метизы" sheetId="5" r:id="rId9"/>
+    <sheet name="Метизы 2" sheetId="6" r:id="rId10"/>
+    <sheet name="Прочее" sheetId="7" r:id="rId11"/>
+    <sheet name="Светильники" sheetId="8" r:id="rId12"/>
+    <sheet name="Блоки питания" sheetId="14" r:id="rId13"/>
+    <sheet name="Щиты" sheetId="15" r:id="rId14"/>
+    <sheet name="Контакторы" sheetId="16" r:id="rId15"/>
+    <sheet name="Реле" sheetId="17" r:id="rId16"/>
+    <sheet name="ВН" sheetId="20" r:id="rId17"/>
+    <sheet name="Выключатели" sheetId="18" r:id="rId18"/>
+    <sheet name="Для щита" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="584">
   <si>
     <t>Subcategory</t>
   </si>
@@ -1674,12 +1676,162 @@
   <si>
     <t>ОГНЕЗА</t>
   </si>
+  <si>
+    <t>щит8 прозрачный по умолчанию</t>
+  </si>
+  <si>
+    <t>KREPTA 3 Корпус пластиковый ЩРН-П-8</t>
+  </si>
+  <si>
+    <t>IP41, 184х200х97мм</t>
+  </si>
+  <si>
+    <t>MKP12-N-08-40-20</t>
+  </si>
+  <si>
+    <t>щит96 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>Корпус металлический 96 модулей, навесной, 710х600х130мм</t>
+  </si>
+  <si>
+    <t>ЩРн-2x48з-0 36 УХЛ3 IP31 PRO</t>
+  </si>
+  <si>
+    <t>MKM15-N-2X48-31-ZU</t>
+  </si>
+  <si>
+    <t>щит12 прозрачный по умолчанию</t>
+  </si>
+  <si>
+    <t>Корпус пластиковый PRIME, 12 модулей навесной белый</t>
+  </si>
+  <si>
+    <t>ЩРН-П-12 УХЛ3 IP41</t>
+  </si>
+  <si>
+    <t>MKP82-N-12-41-10</t>
+  </si>
+  <si>
+    <t>выключатель нагрузки</t>
+  </si>
+  <si>
+    <t>ВН</t>
+  </si>
+  <si>
+    <t>Выключатель нагрузки (мини-рубильник)</t>
+  </si>
+  <si>
+    <t>ВН-32, 1P, 20А</t>
+  </si>
+  <si>
+    <t>MNV10-1-020</t>
+  </si>
+  <si>
+    <t>Выключатель нагрузки 20А по умолчанию</t>
+  </si>
+  <si>
+    <t>Электромонтажные изделия</t>
+  </si>
+  <si>
+    <t>Электромонтажные устройства и изделия</t>
+  </si>
+  <si>
+    <t>лоток</t>
+  </si>
+  <si>
+    <t>Лоток</t>
+  </si>
+  <si>
+    <t>5х2.5 ввг</t>
+  </si>
+  <si>
+    <t>5х1.5 ввг</t>
+  </si>
+  <si>
+    <t>3х2.5 ввг</t>
+  </si>
+  <si>
+    <t>3х1.5 ввг</t>
+  </si>
+  <si>
+    <t>2х2.5 ввг</t>
+  </si>
+  <si>
+    <t>2х1.5 ввг</t>
+  </si>
+  <si>
+    <t>4х1.5 кввг</t>
+  </si>
+  <si>
+    <t>провод 1х6</t>
+  </si>
+  <si>
+    <t>3x1,5-0,66</t>
+  </si>
+  <si>
+    <t>5x2,5-0,66</t>
+  </si>
+  <si>
+    <t>5x1,5-0,66</t>
+  </si>
+  <si>
+    <t>3x2,5-0,66</t>
+  </si>
+  <si>
+    <t>2x2,5-0,66</t>
+  </si>
+  <si>
+    <t>2x1,5-0,66</t>
+  </si>
+  <si>
+    <t>4х1,5-0.66</t>
+  </si>
+  <si>
+    <t>Провод 1х6</t>
+  </si>
+  <si>
+    <t>ПВ3 жз</t>
+  </si>
+  <si>
+    <t>КВВГнг-LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВВГнг-LS </t>
+  </si>
+  <si>
+    <t>металлорукав 20</t>
+  </si>
+  <si>
+    <t>металлорукав 12</t>
+  </si>
+  <si>
+    <t>оконцеватель металлорукава 20</t>
+  </si>
+  <si>
+    <t>оконцеватель металлорукава 12</t>
+  </si>
+  <si>
+    <t>крышка лотка</t>
+  </si>
+  <si>
+    <t>Лоток оцинкованный неперфорированный</t>
+  </si>
+  <si>
+    <t>50х100х3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крышка для лотка </t>
+  </si>
+  <si>
+    <t>100х3000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1699,6 +1851,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1768,7 +1927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1780,6 +1939,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2163,16 +2323,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -2207,13 +2367,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2222,202 +2382,233 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8" t="s">
+        <v>553</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>329</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>554</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>555</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" t="s">
-        <v>474</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" t="s">
+        <v>547</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>492</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>493</v>
       </c>
-      <c r="C17">
-        <v>5</v>
+      <c r="C19">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2427,12 +2618,228 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>2004209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3">
+        <v>2004202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4">
+        <v>2004197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5">
+        <v>24676</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>6551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,7 +3239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2909,7 +3316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93EDBAF-190A-4B2D-B553-2FF24C899F28}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -3091,13 +3498,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045BD59-0024-4A6A-A7D6-870EF5E925B3}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,17 +3553,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>510</v>
+      <c r="A2" t="s">
+        <v>538</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="F2" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -3165,21 +3572,21 @@
         <v>34</v>
       </c>
       <c r="I2">
-        <v>10.6</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>511</v>
+      <c r="A3" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
@@ -3188,7 +3595,76 @@
         <v>34</v>
       </c>
       <c r="I3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
         <v>8.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F8C94A-689E-45A4-9A72-ED4027D00F33}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3271,7 +3747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123510D3-4F1D-44BA-B980-E17E90841981}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3346,12 +3822,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D296D7CC-8522-463B-9E39-C33119326F26}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13321989-F33A-4743-8E00-B46382CEAF8E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,7 +3973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4D59C3-F402-4EA4-B896-CC45A59ABA14}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3539,11 +4091,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,6 +4241,142 @@
         <v>76</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E9" t="s">
+        <v>574</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10" t="s">
+        <v>574</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" t="s">
+        <v>574</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="E14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" t="s">
+        <v>573</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E16" t="s">
+        <v>572</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3697,11 +4385,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F851F222-C619-4439-8BA5-14C5581D8026}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,69 +4593,23 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9">
-        <v>0.29299999999999998</v>
+      <c r="A9" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3977,6 +4619,381 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>53700</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>65303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6">
+        <v>53700</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D597B-F7C3-4E52-B30F-341D73D4634A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2">
+        <v>35022</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F3">
+        <v>35522</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983A7FE-3BC0-429F-9698-EDB6A8DE3D20}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -4214,13 +5231,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D5F983-AC44-4E4D-BCDD-23216F1CD835}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,6 +5288,9 @@
       <c r="A2" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>425</v>
       </c>
@@ -4285,6 +5305,9 @@
       <c r="A3" s="1" t="s">
         <v>432</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>426</v>
       </c>
@@ -4299,6 +5322,9 @@
       <c r="A4" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>427</v>
       </c>
@@ -4313,6 +5339,9 @@
       <c r="A5" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>428</v>
       </c>
@@ -4327,6 +5356,9 @@
       <c r="A6" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>429</v>
       </c>
@@ -4341,6 +5373,9 @@
       <c r="A7" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>430</v>
       </c>
@@ -4349,6 +5384,72 @@
       </c>
       <c r="H7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4361,13 +5462,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,284 +5828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4">
-        <v>53700</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5">
-        <v>65303</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6">
-        <v>53700</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>521</v>
-      </c>
-      <c r="D12" t="s">
-        <v>522</v>
-      </c>
-      <c r="E12" t="s">
-        <v>523</v>
-      </c>
-      <c r="F12" t="s">
-        <v>524</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
-    <sortCondition ref="A2:A11"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
@@ -6751,220 +7575,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>2004209</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3">
-        <v>2004202</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4">
-        <v>2004197</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5">
-        <v>24676</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>6551</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/Library.xlsx
+++ b/Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF9470C-54A4-4EED-8E16-E5E443BA5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF925EC-D50C-4753-901A-43352B0BCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="931" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="Коробки" sheetId="4" r:id="rId4"/>
     <sheet name="Лоток" sheetId="21" r:id="rId5"/>
     <sheet name="Профиль" sheetId="12" r:id="rId6"/>
-    <sheet name="Крепеж" sheetId="13" r:id="rId7"/>
-    <sheet name="Прокладка" sheetId="3" r:id="rId8"/>
-    <sheet name="Метизы" sheetId="5" r:id="rId9"/>
-    <sheet name="Метизы 2" sheetId="6" r:id="rId10"/>
-    <sheet name="Прочее" sheetId="7" r:id="rId11"/>
-    <sheet name="Светильники" sheetId="8" r:id="rId12"/>
-    <sheet name="Блоки питания" sheetId="14" r:id="rId13"/>
-    <sheet name="Щиты" sheetId="15" r:id="rId14"/>
-    <sheet name="Контакторы" sheetId="16" r:id="rId15"/>
-    <sheet name="Реле" sheetId="17" r:id="rId16"/>
-    <sheet name="ВН" sheetId="20" r:id="rId17"/>
-    <sheet name="Выключатели" sheetId="18" r:id="rId18"/>
-    <sheet name="Для щита" sheetId="19" r:id="rId19"/>
+    <sheet name="Проч эми" sheetId="22" r:id="rId7"/>
+    <sheet name="Крепеж" sheetId="13" r:id="rId8"/>
+    <sheet name="Прокладка" sheetId="3" r:id="rId9"/>
+    <sheet name="Метизы" sheetId="5" r:id="rId10"/>
+    <sheet name="Метизы 2" sheetId="6" r:id="rId11"/>
+    <sheet name="Прочее" sheetId="7" r:id="rId12"/>
+    <sheet name="Светильники" sheetId="8" r:id="rId13"/>
+    <sheet name="Блоки питания" sheetId="14" r:id="rId14"/>
+    <sheet name="Щиты" sheetId="15" r:id="rId15"/>
+    <sheet name="Контакторы" sheetId="16" r:id="rId16"/>
+    <sheet name="Реле" sheetId="17" r:id="rId17"/>
+    <sheet name="ВН" sheetId="20" r:id="rId18"/>
+    <sheet name="Выкл" sheetId="18" r:id="rId19"/>
+    <sheet name="Для щита" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="606">
   <si>
     <t>Subcategory</t>
   </si>
@@ -218,24 +219,12 @@
     <t>химический анкер</t>
   </si>
   <si>
-    <t>Лоток неперфорированный 50х50</t>
-  </si>
-  <si>
     <t>труба 32мм</t>
   </si>
   <si>
     <t>хомут 25</t>
   </si>
   <si>
-    <t>лоток неперфорированный 50х50</t>
-  </si>
-  <si>
-    <t>крышка лотка 50х50</t>
-  </si>
-  <si>
-    <t>заглушка лотка 50х50</t>
-  </si>
-  <si>
     <t>вкладка для обжатия проводов</t>
   </si>
   <si>
@@ -291,18 +280,6 @@
   </si>
   <si>
     <t>6040-25</t>
-  </si>
-  <si>
-    <t>толщ. 0.7мм</t>
-  </si>
-  <si>
-    <t>Крышка на лоток осн. 50</t>
-  </si>
-  <si>
-    <t>толщ. 0.6мм</t>
-  </si>
-  <si>
-    <t>Заглушка цельная ТС 50х50</t>
   </si>
   <si>
     <t>сталь оцинкованная</t>
@@ -1539,9 +1516,6 @@
     <t>Контакторы</t>
   </si>
   <si>
-    <t>Выключатели</t>
-  </si>
-  <si>
     <t>выключатель</t>
   </si>
   <si>
@@ -1825,6 +1799,99 @@
   </si>
   <si>
     <t>100х3000</t>
+  </si>
+  <si>
+    <t>Металлорукав герметичный в ПВХ-изоляции с протяжкой, не поддерживает горение, d внут.=19.6 , d внеш.=23.2</t>
+  </si>
+  <si>
+    <t>МРПИнг 20</t>
+  </si>
+  <si>
+    <t>Металлорукав герметичный в ПВХ-изоляции с протяжкой, не поддерживает горение, d внут.=11.3 , d внеш.=15.3</t>
+  </si>
+  <si>
+    <t>МРПИнг 12</t>
+  </si>
+  <si>
+    <t>Оконцеватель защитный металлорукова МРПИнг 20, dн=30.0</t>
+  </si>
+  <si>
+    <t>ОЗМ-20</t>
+  </si>
+  <si>
+    <t>Оконцеватель защитный металлорукова МРПИнг 12, dн=20.1</t>
+  </si>
+  <si>
+    <t>ОЗМ-12</t>
+  </si>
+  <si>
+    <t>проч эми</t>
+  </si>
+  <si>
+    <t>Проч эми</t>
+  </si>
+  <si>
+    <t>Выкл</t>
+  </si>
+  <si>
+    <t>огнезащитный герметик</t>
+  </si>
+  <si>
+    <t>Огнестойкая монтажная пена</t>
+  </si>
+  <si>
+    <t>ОГНЕЗА EI240, 750мл</t>
+  </si>
+  <si>
+    <t>Соединительная клемма СК-412</t>
+  </si>
+  <si>
+    <t>SQ0527-0011</t>
+  </si>
+  <si>
+    <t>Соединительная клемма СК-413</t>
+  </si>
+  <si>
+    <t>до 2,5мм2, кол.подкл. пров. 2</t>
+  </si>
+  <si>
+    <t>до 2,5мм2, кол.подкл. пров. 3</t>
+  </si>
+  <si>
+    <t>SQ0527-0012</t>
+  </si>
+  <si>
+    <t>tdm-electro</t>
+  </si>
+  <si>
+    <t>шайба гроверная м5</t>
+  </si>
+  <si>
+    <t>клемма ск412</t>
+  </si>
+  <si>
+    <t>клемма ск413</t>
+  </si>
+  <si>
+    <t>Винт потайной М6х12 оцинкованный</t>
+  </si>
+  <si>
+    <t>винт потайной м6х12 нерж</t>
+  </si>
+  <si>
+    <t>7х1.5 кввг</t>
+  </si>
+  <si>
+    <t>7х1,5-0.66</t>
+  </si>
+  <si>
+    <t>печенька</t>
+  </si>
+  <si>
+    <t>печ</t>
+  </si>
+  <si>
+    <t>пвло</t>
   </si>
 </sst>
 </file>
@@ -2323,11 +2390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,10 +2434,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2387,10 +2454,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2398,10 +2465,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2454,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F8" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2465,10 +2532,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2476,10 +2543,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B10" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2487,127 +2554,138 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>584</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F14" t="s">
-        <v>474</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>585</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="B18" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20">
         <v>6</v>
       </c>
     </row>
@@ -2618,12 +2696,1778 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7633</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D41" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48">
+        <v>11110814006</v>
+      </c>
+      <c r="G48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49">
+        <v>11110814008</v>
+      </c>
+      <c r="G49" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50">
+        <v>11110814010</v>
+      </c>
+      <c r="G50" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E52" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>261</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" t="s">
+        <v>269</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C71" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71" t="s">
+        <v>270</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F72" t="s">
+        <v>271</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +4516,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -2692,13 +4536,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F3">
         <v>2004202</v>
@@ -2712,13 +4556,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F4">
         <v>2004197</v>
@@ -2732,13 +4576,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F5">
         <v>24676</v>
@@ -2755,50 +4599,53 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>599</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>6551</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>6551</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
+      </c>
+      <c r="I7">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -2806,24 +4653,38 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2833,13 +4694,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,8 +4753,11 @@
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -2913,16 +4777,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F3">
         <v>2031079</v>
@@ -2936,10 +4803,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -2959,16 +4829,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2977,27 +4850,30 @@
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="F6">
-        <v>105038</v>
+        <v>105248</v>
       </c>
       <c r="G6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -3005,233 +4881,216 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>330</v>
+        <v>586</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>522</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" t="s">
-        <v>306</v>
+        <v>523</v>
+      </c>
+      <c r="F7">
+        <v>105038</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>524</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
-      </c>
-      <c r="I7">
-        <v>1.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>526</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>527</v>
-      </c>
-      <c r="F16">
-        <v>59122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3239,7 +5098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3294,10 +5153,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -3316,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93EDBAF-190A-4B2D-B553-2FF24C899F28}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -3371,16 +5230,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3388,16 +5247,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -3405,16 +5264,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -3422,16 +5281,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -3439,16 +5298,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -3473,13 +5332,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -3498,7 +5357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045BD59-0024-4A6A-A7D6-870EF5E925B3}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -3554,19 +5413,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3577,19 +5436,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D3" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F3" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -3600,19 +5459,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="E4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -3623,19 +5482,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D5" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -3646,19 +5505,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F6" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -3673,7 +5532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F8C94A-689E-45A4-9A72-ED4027D00F33}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3724,19 +5583,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3747,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123510D3-4F1D-44BA-B980-E17E90841981}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3799,19 +5658,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3822,7 +5681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D296D7CC-8522-463B-9E39-C33119326F26}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3874,19 +5733,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3898,7 +5757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13321989-F33A-4743-8E00-B46382CEAF8E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3950,19 +5809,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -3973,7 +5832,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>547</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>565</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" t="s">
+        <v>565</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E15" t="s">
+        <v>564</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>601</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E16" t="s">
+        <v>564</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E17" t="s">
+        <v>563</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4D59C3-F402-4EA4-B896-CC45A59ABA14}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -4023,22 +6212,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -4046,19 +6235,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -4066,19 +6255,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -4086,300 +6275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D6" t="s">
-        <v>519</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>517</v>
-      </c>
-      <c r="D7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>556</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="E9" t="s">
-        <v>574</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E10" t="s">
-        <v>574</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E11" t="s">
-        <v>574</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>559</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>560</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="E13" t="s">
-        <v>574</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="E14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="E15" t="s">
-        <v>573</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="E16" t="s">
-        <v>572</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4389,7 +6284,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,10 +6334,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -4465,56 +6360,56 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -4531,13 +6426,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>50132</v>
@@ -4551,10 +6446,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -4574,13 +6469,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>50332</v>
@@ -4594,22 +6489,88 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>575</v>
+      </c>
+      <c r="E9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F9">
+        <v>65021</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>576</v>
+        <v>567</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10">
+        <v>65019</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>577</v>
+        <v>568</v>
+      </c>
+      <c r="D11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F11">
+        <v>68406</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>578</v>
+        <v>569</v>
+      </c>
+      <c r="D12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12">
+        <v>68404</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4624,7 +6585,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4674,16 +6635,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -4691,13 +6652,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -4705,13 +6666,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>53700</v>
@@ -4728,13 +6689,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>65303</v>
@@ -4751,13 +6712,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>53700</v>
@@ -4772,21 +6733,21 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -4794,10 +6755,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -4808,16 +6769,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -4831,13 +6792,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -4851,16 +6812,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -4868,19 +6829,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E12" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F12" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
@@ -4899,7 +6860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D597B-F7C3-4E52-B30F-341D73D4634A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4944,16 +6905,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F2">
         <v>35022</v>
@@ -4967,16 +6928,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F3">
         <v>35522</v>
@@ -5049,16 +7010,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
@@ -5072,16 +7033,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -5095,16 +7056,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -5138,16 +7099,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -5161,16 +7122,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -5184,19 +7145,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -5204,16 +7165,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -5232,12 +7193,152 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA604B-7F67-4F4A-BA76-E6F21752A0D7}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3">
+        <v>59122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F4" t="s">
+        <v>590</v>
+      </c>
+      <c r="G4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G5" t="s">
+        <v>595</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D5F983-AC44-4E4D-BCDD-23216F1CD835}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5286,13 +7387,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -5303,13 +7404,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -5320,13 +7421,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -5337,13 +7438,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -5354,13 +7455,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -5371,85 +7472,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>530</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5462,13 +7497,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,16 +7553,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -5535,22 +7573,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
@@ -5558,16 +7599,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -5575,85 +7619,85 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>403</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5">
-        <v>37240</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
-      </c>
-      <c r="I5">
-        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>404</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6">
-        <v>35510</v>
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6">
-        <v>0.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7">
-        <v>35010</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7">
-        <v>0.42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>411</v>
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -5661,1918 +7705,199 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
+      </c>
+      <c r="I9">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>58026</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14">
-        <v>58026</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D15" t="s">
-        <v>465</v>
-      </c>
-      <c r="F15" t="s">
-        <v>464</v>
-      </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>461</v>
+      <c r="A16" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J75"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7633</v>
-      </c>
-      <c r="G11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D26" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D31" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D34" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" t="s">
-        <v>230</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" t="s">
-        <v>232</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D39" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D40" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D45" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D46" t="s">
-        <v>247</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" t="s">
-        <v>249</v>
-      </c>
-      <c r="E48" t="s">
-        <v>250</v>
-      </c>
-      <c r="F48">
-        <v>11110814006</v>
-      </c>
-      <c r="G48" t="s">
-        <v>251</v>
-      </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49">
-        <v>11110814008</v>
-      </c>
-      <c r="G49" t="s">
-        <v>251</v>
-      </c>
-      <c r="H49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D50" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" t="s">
-        <v>250</v>
-      </c>
-      <c r="F50">
-        <v>11110814010</v>
-      </c>
-      <c r="G50" t="s">
-        <v>251</v>
-      </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s">
-        <v>256</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D52" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52" t="s">
-        <v>257</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D53" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" t="s">
-        <v>258</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D54" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" t="s">
-        <v>259</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D55" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" t="s">
-        <v>175</v>
-      </c>
-      <c r="F55" t="s">
-        <v>260</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D56" t="s">
-        <v>255</v>
-      </c>
-      <c r="E56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D57" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" t="s">
-        <v>262</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E58" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D59" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" t="s">
-        <v>169</v>
-      </c>
-      <c r="F59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D61" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" t="s">
-        <v>173</v>
-      </c>
-      <c r="F61" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E62" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62" t="s">
-        <v>268</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D63" t="s">
-        <v>263</v>
-      </c>
-      <c r="E63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" t="s">
-        <v>269</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D64" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" t="s">
-        <v>178</v>
-      </c>
-      <c r="F64" t="s">
-        <v>270</v>
-      </c>
-      <c r="G64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D65" t="s">
-        <v>271</v>
-      </c>
-      <c r="E65" t="s">
-        <v>171</v>
-      </c>
-      <c r="F65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D66" t="s">
-        <v>271</v>
-      </c>
-      <c r="E66" t="s">
-        <v>173</v>
-      </c>
-      <c r="F66" t="s">
-        <v>273</v>
-      </c>
-      <c r="G66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" t="s">
-        <v>175</v>
-      </c>
-      <c r="F67" t="s">
-        <v>274</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" t="s">
-        <v>275</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C69" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" t="s">
-        <v>76</v>
-      </c>
-      <c r="I69">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C70" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" t="s">
-        <v>276</v>
-      </c>
-      <c r="E70" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" t="s">
-        <v>278</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s">
-        <v>76</v>
-      </c>
-      <c r="I70">
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C71" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" t="s">
-        <v>276</v>
-      </c>
-      <c r="E71" t="s">
-        <v>175</v>
-      </c>
-      <c r="F71" t="s">
-        <v>279</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" t="s">
-        <v>76</v>
-      </c>
-      <c r="I71">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C72" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" t="s">
-        <v>276</v>
-      </c>
-      <c r="E72" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" t="s">
-        <v>280</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s">
-        <v>76</v>
-      </c>
-      <c r="I72">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D73" t="s">
-        <v>281</v>
-      </c>
-      <c r="E73" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D74" t="s">
-        <v>281</v>
-      </c>
-      <c r="E74" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" t="s">
-        <v>282</v>
-      </c>
-      <c r="E75" t="s">
-        <v>173</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/Library.xlsx
+++ b/Library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF925EC-D50C-4753-901A-43352B0BCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4569F-7FA2-423C-B113-0E87379005C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="603">
   <si>
     <t>Subcategory</t>
   </si>
@@ -1883,15 +1883,6 @@
   </si>
   <si>
     <t>7х1,5-0.66</t>
-  </si>
-  <si>
-    <t>печенька</t>
-  </si>
-  <si>
-    <t>печ</t>
-  </si>
-  <si>
-    <t>пвло</t>
   </si>
 </sst>
 </file>
@@ -5838,7 +5829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6138,23 +6129,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>603</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>604</v>
-      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>605</v>
-      </c>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\4 Тестирование\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4569F-7FA2-423C-B113-0E87379005C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B7B38-F50C-4815-BD9B-3C20362711A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Коробки" sheetId="4" r:id="rId4"/>
     <sheet name="Лоток" sheetId="21" r:id="rId5"/>
     <sheet name="Профиль" sheetId="12" r:id="rId6"/>
-    <sheet name="Проч эми" sheetId="22" r:id="rId7"/>
-    <sheet name="Крепеж" sheetId="13" r:id="rId8"/>
+    <sheet name="Крепл" sheetId="23" r:id="rId7"/>
+    <sheet name="Проч эми" sheetId="22" r:id="rId8"/>
     <sheet name="Прокладка" sheetId="3" r:id="rId9"/>
     <sheet name="Метизы" sheetId="5" r:id="rId10"/>
-    <sheet name="Метизы 2" sheetId="6" r:id="rId11"/>
+    <sheet name="Метизы2" sheetId="6" r:id="rId11"/>
     <sheet name="Прочее" sheetId="7" r:id="rId12"/>
     <sheet name="Светильники" sheetId="8" r:id="rId13"/>
     <sheet name="Блоки питания" sheetId="14" r:id="rId14"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="657">
   <si>
     <t>Subcategory</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>метизы 2</t>
-  </si>
-  <si>
-    <t>Метизы 2</t>
   </si>
   <si>
     <t>коробки</t>
@@ -961,928 +958,1093 @@
     <t>Nanoprotech 021</t>
   </si>
   <si>
+    <t>Гильза соединительная изолированная кв.мм (ГСИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПВХ 16-25 </t>
+  </si>
+  <si>
+    <t>2F20P</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 2/1 черная</t>
+  </si>
+  <si>
+    <t>ТТУ нг-LS</t>
+  </si>
+  <si>
+    <t>UDRS-D2-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 8/4 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D8-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 12/6 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D12-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 16/8 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D16-1-K02</t>
+  </si>
+  <si>
+    <t>Трубка термоусадочная 35/17,5 черная</t>
+  </si>
+  <si>
+    <t>UDRS-D35-1-K02</t>
+  </si>
+  <si>
+    <t>химический анкер 330</t>
+  </si>
+  <si>
+    <t>химический анкер 500</t>
+  </si>
+  <si>
+    <t>спрей диэлектрический 210мл</t>
+  </si>
+  <si>
+    <t>противопожарная пена</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 1ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 2ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 3ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка 5ж</t>
+  </si>
+  <si>
+    <t>термоусадочная трубка гофра</t>
+  </si>
+  <si>
+    <t>труба</t>
+  </si>
+  <si>
+    <t>Труба</t>
+  </si>
+  <si>
+    <t>гильза гси</t>
+  </si>
+  <si>
+    <t>винт м4х45 с дюбелем м8</t>
+  </si>
+  <si>
+    <t>винт потайной м6х12</t>
+  </si>
+  <si>
+    <t>анкер-шпилька м8х55</t>
+  </si>
+  <si>
+    <t>анкер-шпилька м12х115</t>
+  </si>
+  <si>
+    <t>анкер-шпилька м10х83</t>
+  </si>
+  <si>
+    <t>заклепка а2/а2 4,0×8 dk6,5 k0,8 f4,1-4,2 d3 l8 g3-5</t>
+  </si>
+  <si>
+    <t>анкер м14</t>
+  </si>
+  <si>
+    <t>болт м4х16</t>
+  </si>
+  <si>
+    <t>анкер м4</t>
+  </si>
+  <si>
+    <t>анкер м5</t>
+  </si>
+  <si>
+    <t>анкер м6</t>
+  </si>
+  <si>
+    <t>анкер м8</t>
+  </si>
+  <si>
+    <t>анкер м10</t>
+  </si>
+  <si>
+    <t>анкер м12</t>
+  </si>
+  <si>
+    <t>болт м5х20</t>
+  </si>
+  <si>
+    <t>болт м5х30</t>
+  </si>
+  <si>
+    <t>болт м6х20</t>
+  </si>
+  <si>
+    <t>болт м6х25</t>
+  </si>
+  <si>
+    <t>болт м6х45</t>
+  </si>
+  <si>
+    <t>болт м8х16</t>
+  </si>
+  <si>
+    <t>болт м8х25</t>
+  </si>
+  <si>
+    <t>болт м8х30</t>
+  </si>
+  <si>
+    <t>болт м8х40</t>
+  </si>
+  <si>
+    <t>болт м8х50</t>
+  </si>
+  <si>
+    <t>болт м8х60 с неполной резьбой</t>
+  </si>
+  <si>
+    <t>болт м8х80</t>
+  </si>
+  <si>
+    <t>болт м10х25</t>
+  </si>
+  <si>
+    <t>болт м10х35</t>
+  </si>
+  <si>
+    <t>болт м10х50</t>
+  </si>
+  <si>
+    <t>болт м10х60</t>
+  </si>
+  <si>
+    <t>болт м10х70</t>
+  </si>
+  <si>
+    <t>болт м10х80</t>
+  </si>
+  <si>
+    <t>болт м10х90</t>
+  </si>
+  <si>
+    <t>болт м10х100</t>
+  </si>
+  <si>
+    <t>болт м10х110</t>
+  </si>
+  <si>
+    <t>болт м10х120</t>
+  </si>
+  <si>
+    <t>болт м12х80</t>
+  </si>
+  <si>
+    <t>гайка м4</t>
+  </si>
+  <si>
+    <t>гайка м5</t>
+  </si>
+  <si>
+    <t>гайка м6</t>
+  </si>
+  <si>
+    <t>гайка м8</t>
+  </si>
+  <si>
+    <t>гайка м10</t>
+  </si>
+  <si>
+    <t>гайка м12</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м6</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м8</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м10</t>
+  </si>
+  <si>
+    <t>гайка самоконтрящаяся м12</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м6</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м8</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м10</t>
+  </si>
+  <si>
+    <t>гайка удлиненная м12</t>
+  </si>
+  <si>
+    <t>гайка м6х25</t>
+  </si>
+  <si>
+    <t>шайба кузовная м4</t>
+  </si>
+  <si>
+    <t>шайба кузовная м5</t>
+  </si>
+  <si>
+    <t>шайба кузовная м6</t>
+  </si>
+  <si>
+    <t>шайба кузовная м8</t>
+  </si>
+  <si>
+    <t>шайба кузовная м10</t>
+  </si>
+  <si>
+    <t>шайба кузовная м12</t>
+  </si>
+  <si>
+    <t>шайба кузовная м14</t>
+  </si>
+  <si>
+    <t>шайба м4</t>
+  </si>
+  <si>
+    <t>шайба м5</t>
+  </si>
+  <si>
+    <t>шайба м6</t>
+  </si>
+  <si>
+    <t>шайба м8</t>
+  </si>
+  <si>
+    <t>шайба м10</t>
+  </si>
+  <si>
+    <t>шайба м12</t>
+  </si>
+  <si>
+    <t>шайба м14</t>
+  </si>
+  <si>
+    <t>шайба гроверная м6</t>
+  </si>
+  <si>
+    <t>шайба гроверная м8</t>
+  </si>
+  <si>
+    <t>шайба гроверная м10</t>
+  </si>
+  <si>
+    <t>шайба гроверная м12</t>
+  </si>
+  <si>
+    <t>шпилька м6</t>
+  </si>
+  <si>
+    <t>шпилька м8</t>
+  </si>
+  <si>
+    <t>шпилька м10</t>
+  </si>
+  <si>
+    <t>шпилька м12</t>
+  </si>
+  <si>
+    <t>шуруп м4</t>
+  </si>
+  <si>
+    <t>шуруп м8</t>
+  </si>
+  <si>
+    <t>профиль z образный 50х50</t>
+  </si>
+  <si>
+    <t>соединитель bpn-29</t>
+  </si>
+  <si>
+    <t>гильза гим-т</t>
+  </si>
+  <si>
+    <t>гвоздь 22мм по бетону для пистолета toua</t>
+  </si>
+  <si>
+    <t>наконечник кольц нки4-8</t>
+  </si>
+  <si>
+    <t>перфолента лсп 20х0.5 25м</t>
+  </si>
+  <si>
+    <t>профиль п-образный 40х56х2010</t>
+  </si>
+  <si>
+    <t>хомут д25 с резьбой м6</t>
+  </si>
+  <si>
+    <t>гладкая пвх труба 25</t>
+  </si>
+  <si>
+    <t>ввг 5х2.5</t>
+  </si>
+  <si>
+    <t>сальник акм20</t>
+  </si>
+  <si>
+    <t>муфта гибкая труба-труба 25</t>
+  </si>
+  <si>
+    <t>П-образный профиль PSM, горячеоцинкованный</t>
+  </si>
+  <si>
+    <t>BPM2930HDZ</t>
+  </si>
+  <si>
+    <t>профиль</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>Кронштейн К1</t>
+  </si>
+  <si>
+    <t>Кронштейн К2</t>
+  </si>
+  <si>
+    <t>Кронштейн К3</t>
+  </si>
+  <si>
+    <t>Кронштейн К4</t>
+  </si>
+  <si>
+    <t>Кронштейн К5</t>
+  </si>
+  <si>
+    <t>Кронштейн К6</t>
+  </si>
+  <si>
+    <t>кронштейн к1</t>
+  </si>
+  <si>
+    <t>кронштейн к2</t>
+  </si>
+  <si>
+    <t>кронштейн к3</t>
+  </si>
+  <si>
+    <t>кронштейн к4</t>
+  </si>
+  <si>
+    <t>кронштейн к5</t>
+  </si>
+  <si>
+    <t>кронштейн к6</t>
+  </si>
+  <si>
+    <t>бп</t>
+  </si>
+  <si>
+    <t>Блоки питания</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 120Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>HLG-120H-24</t>
+  </si>
+  <si>
+    <t>MeanWell</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 60Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 150Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 185Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>Блок питания IP67, 240Вт, 220/24В</t>
+  </si>
+  <si>
+    <t>HLG-60H-24</t>
+  </si>
+  <si>
+    <t>HLG-150H-24</t>
+  </si>
+  <si>
+    <t>HLG-185H-24</t>
+  </si>
+  <si>
+    <t>HLG-240H-24</t>
+  </si>
+  <si>
+    <t>бп60</t>
+  </si>
+  <si>
+    <t>бп120</t>
+  </si>
+  <si>
+    <t>бп150</t>
+  </si>
+  <si>
+    <t>бп185</t>
+  </si>
+  <si>
+    <t>бп240</t>
+  </si>
+  <si>
+    <t>ввг 2х2.5</t>
+  </si>
+  <si>
+    <t>Колпачки для герметизации разъёмов последних светильников</t>
+  </si>
+  <si>
+    <t>колпачек для герметизации разъема</t>
+  </si>
+  <si>
+    <t>светильник</t>
+  </si>
+  <si>
+    <t>Светильник</t>
+  </si>
+  <si>
+    <t>универсальный держатель с бетоном</t>
+  </si>
+  <si>
+    <t>пруток металлический д8</t>
+  </si>
+  <si>
+    <t>Пруток металлический оцинкованный</t>
+  </si>
+  <si>
+    <t>Ø8</t>
+  </si>
+  <si>
+    <t>ND1000</t>
+  </si>
+  <si>
+    <t>Универсальный держатель с бетоном</t>
+  </si>
+  <si>
+    <t>ввг 3х2.5</t>
+  </si>
+  <si>
+    <t>управление 10х1</t>
+  </si>
+  <si>
+    <t>щит</t>
+  </si>
+  <si>
+    <t>Щиты</t>
+  </si>
+  <si>
+    <t>Щитовое оборудование</t>
+  </si>
+  <si>
+    <t>Лампа зелёная сигнальная</t>
+  </si>
+  <si>
+    <t>ЛС-47М</t>
+  </si>
+  <si>
+    <t>MLS20-230-K06</t>
+  </si>
+  <si>
+    <t>лампа зеленая</t>
+  </si>
+  <si>
+    <t>зажим наборный</t>
+  </si>
+  <si>
+    <t>YZN10-002-K03</t>
+  </si>
+  <si>
+    <t>Зажим наборный ЗНИ-2,5мм2 (JXB24А)</t>
+  </si>
+  <si>
+    <t>заглушка для кви</t>
+  </si>
+  <si>
+    <t>Заглушка для КВИ-2,5мм2</t>
+  </si>
+  <si>
+    <t>цвет серый</t>
+  </si>
+  <si>
+    <t>YZN30D-ZGL-002-K03</t>
+  </si>
+  <si>
+    <t>контактор</t>
+  </si>
+  <si>
+    <t>Контакторы</t>
+  </si>
+  <si>
+    <t>выключатель</t>
+  </si>
+  <si>
+    <t>реле</t>
+  </si>
+  <si>
+    <t>Реле</t>
+  </si>
+  <si>
+    <t>для щита</t>
+  </si>
+  <si>
+    <t>Для щита</t>
+  </si>
+  <si>
+    <t>Выключатель 3р 20а по умолчанию</t>
+  </si>
+  <si>
+    <t>Автоматический выключатель ВА47-60M 3Р 20А</t>
+  </si>
+  <si>
+    <t>С20А</t>
+  </si>
+  <si>
+    <t>MVA31-3-020-C</t>
+  </si>
+  <si>
+    <t>реле по умолчанию</t>
+  </si>
+  <si>
+    <t>Реле времени программируемое одноканальное</t>
+  </si>
+  <si>
+    <t>PCZ-525-1</t>
+  </si>
+  <si>
+    <t>EA02.002.011</t>
+  </si>
+  <si>
+    <t>Евро-Автоматика</t>
+  </si>
+  <si>
+    <t>контактор км25-40м</t>
+  </si>
+  <si>
+    <t>Контактор модульный КМ25-40М AC/DC IEK</t>
+  </si>
+  <si>
+    <t>25А</t>
+  </si>
+  <si>
+    <t>MKK21-25-40</t>
+  </si>
+  <si>
+    <t>TITAN 3 Корпус металлический ЩРн-72</t>
+  </si>
+  <si>
+    <t>IP31, 540х600х120мм</t>
+  </si>
+  <si>
+    <t>MKM14-N-72-31-Z</t>
+  </si>
+  <si>
+    <t>щит72 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>щит54 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>TITAN 3 Корпус металлический ЩРн-54</t>
+  </si>
+  <si>
+    <t>IP31, 540х440х120мм</t>
+  </si>
+  <si>
+    <t>MKM14-N-54-31-Z</t>
+  </si>
+  <si>
+    <t>ввг 5х1.5</t>
+  </si>
+  <si>
+    <t>ввг 3х1.5</t>
+  </si>
+  <si>
+    <t>ввг 2х1.5</t>
+  </si>
+  <si>
+    <t>коробка промрукав</t>
+  </si>
+  <si>
+    <t>Коробка распределительная 60-0300 для прямого монтажа двухкомпонентная безгалогенная (HF) 100х100х50</t>
+  </si>
+  <si>
+    <t>IP66</t>
+  </si>
+  <si>
+    <t>60-0300</t>
+  </si>
+  <si>
+    <t>трубка термоусаживаемая</t>
+  </si>
+  <si>
+    <t>гильзы для подкл свет</t>
+  </si>
+  <si>
+    <t>ГИС-Т 1,5</t>
+  </si>
+  <si>
+    <t>труба вгп 25</t>
+  </si>
+  <si>
+    <t>труба вгп 32</t>
+  </si>
+  <si>
+    <t>Труба ВГП стальная</t>
+  </si>
+  <si>
+    <t>Огнезащитный терморасширяющийся герметик</t>
+  </si>
+  <si>
+    <t>ОГНЕЗА ГТ, 310 мл</t>
+  </si>
+  <si>
+    <t>ОГНЕЗА</t>
+  </si>
+  <si>
+    <t>щит8 прозрачный по умолчанию</t>
+  </si>
+  <si>
+    <t>KREPTA 3 Корпус пластиковый ЩРН-П-8</t>
+  </si>
+  <si>
+    <t>IP41, 184х200х97мм</t>
+  </si>
+  <si>
+    <t>MKP12-N-08-40-20</t>
+  </si>
+  <si>
+    <t>щит96 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>Корпус металлический 96 модулей, навесной, 710х600х130мм</t>
+  </si>
+  <si>
+    <t>ЩРн-2x48з-0 36 УХЛ3 IP31 PRO</t>
+  </si>
+  <si>
+    <t>MKM15-N-2X48-31-ZU</t>
+  </si>
+  <si>
+    <t>щит12 прозрачный по умолчанию</t>
+  </si>
+  <si>
+    <t>Корпус пластиковый PRIME, 12 модулей навесной белый</t>
+  </si>
+  <si>
+    <t>ЩРН-П-12 УХЛ3 IP41</t>
+  </si>
+  <si>
+    <t>MKP82-N-12-41-10</t>
+  </si>
+  <si>
+    <t>выключатель нагрузки</t>
+  </si>
+  <si>
+    <t>ВН</t>
+  </si>
+  <si>
+    <t>Выключатель нагрузки (мини-рубильник)</t>
+  </si>
+  <si>
+    <t>ВН-32, 1P, 20А</t>
+  </si>
+  <si>
+    <t>MNV10-1-020</t>
+  </si>
+  <si>
+    <t>Выключатель нагрузки 20А по умолчанию</t>
+  </si>
+  <si>
+    <t>Электромонтажные изделия</t>
+  </si>
+  <si>
+    <t>Электромонтажные устройства и изделия</t>
+  </si>
+  <si>
+    <t>лоток</t>
+  </si>
+  <si>
+    <t>Лоток</t>
+  </si>
+  <si>
+    <t>5х2.5 ввг</t>
+  </si>
+  <si>
+    <t>5х1.5 ввг</t>
+  </si>
+  <si>
+    <t>3х2.5 ввг</t>
+  </si>
+  <si>
+    <t>3х1.5 ввг</t>
+  </si>
+  <si>
+    <t>2х2.5 ввг</t>
+  </si>
+  <si>
+    <t>2х1.5 ввг</t>
+  </si>
+  <si>
+    <t>4х1.5 кввг</t>
+  </si>
+  <si>
+    <t>провод 1х6</t>
+  </si>
+  <si>
+    <t>3x1,5-0,66</t>
+  </si>
+  <si>
+    <t>5x2,5-0,66</t>
+  </si>
+  <si>
+    <t>5x1,5-0,66</t>
+  </si>
+  <si>
+    <t>3x2,5-0,66</t>
+  </si>
+  <si>
+    <t>2x2,5-0,66</t>
+  </si>
+  <si>
+    <t>2x1,5-0,66</t>
+  </si>
+  <si>
+    <t>4х1,5-0.66</t>
+  </si>
+  <si>
+    <t>Провод 1х6</t>
+  </si>
+  <si>
+    <t>ПВ3 жз</t>
+  </si>
+  <si>
+    <t>КВВГнг-LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВВГнг-LS </t>
+  </si>
+  <si>
+    <t>металлорукав 20</t>
+  </si>
+  <si>
+    <t>металлорукав 12</t>
+  </si>
+  <si>
+    <t>оконцеватель металлорукава 20</t>
+  </si>
+  <si>
+    <t>оконцеватель металлорукава 12</t>
+  </si>
+  <si>
+    <t>крышка лотка</t>
+  </si>
+  <si>
+    <t>Лоток оцинкованный неперфорированный</t>
+  </si>
+  <si>
+    <t>50х100х3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крышка для лотка </t>
+  </si>
+  <si>
+    <t>100х3000</t>
+  </si>
+  <si>
+    <t>Металлорукав герметичный в ПВХ-изоляции с протяжкой, не поддерживает горение, d внут.=19.6 , d внеш.=23.2</t>
+  </si>
+  <si>
+    <t>МРПИнг 20</t>
+  </si>
+  <si>
+    <t>Металлорукав герметичный в ПВХ-изоляции с протяжкой, не поддерживает горение, d внут.=11.3 , d внеш.=15.3</t>
+  </si>
+  <si>
+    <t>МРПИнг 12</t>
+  </si>
+  <si>
+    <t>Оконцеватель защитный металлорукова МРПИнг 20, dн=30.0</t>
+  </si>
+  <si>
+    <t>ОЗМ-20</t>
+  </si>
+  <si>
+    <t>Оконцеватель защитный металлорукова МРПИнг 12, dн=20.1</t>
+  </si>
+  <si>
+    <t>ОЗМ-12</t>
+  </si>
+  <si>
+    <t>проч эми</t>
+  </si>
+  <si>
+    <t>Проч эми</t>
+  </si>
+  <si>
+    <t>Выкл</t>
+  </si>
+  <si>
+    <t>огнезащитный герметик</t>
+  </si>
+  <si>
+    <t>Огнестойкая монтажная пена</t>
+  </si>
+  <si>
+    <t>ОГНЕЗА EI240, 750мл</t>
+  </si>
+  <si>
+    <t>Соединительная клемма СК-412</t>
+  </si>
+  <si>
+    <t>SQ0527-0011</t>
+  </si>
+  <si>
+    <t>Соединительная клемма СК-413</t>
+  </si>
+  <si>
+    <t>до 2,5мм2, кол.подкл. пров. 2</t>
+  </si>
+  <si>
+    <t>до 2,5мм2, кол.подкл. пров. 3</t>
+  </si>
+  <si>
+    <t>tdm-electro</t>
+  </si>
+  <si>
+    <t>шайба гроверная м5</t>
+  </si>
+  <si>
+    <t>клемма ск412</t>
+  </si>
+  <si>
+    <t>клемма ск413</t>
+  </si>
+  <si>
+    <t>Винт потайной М6х12 оцинкованный</t>
+  </si>
+  <si>
+    <t>винт потайной м6х12 нерж</t>
+  </si>
+  <si>
+    <t>7х1.5 кввг</t>
+  </si>
+  <si>
+    <t>7х1,5-0.66</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 5х2.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 3х2.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 2х2.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 5х1.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 3х1.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-LS(А) 2х1.5мм²</t>
+  </si>
+  <si>
+    <t>Метизы2</t>
+  </si>
+  <si>
+    <t>крепление</t>
+  </si>
+  <si>
+    <t>Крепл</t>
+  </si>
+  <si>
+    <t>Соединительная клемма СК-414</t>
+  </si>
+  <si>
+    <t>клемма ск414</t>
+  </si>
+  <si>
+    <t>до 2,5мм2, кол.подкл. пров. 4</t>
+  </si>
+  <si>
+    <t>SQ0527-0004</t>
+  </si>
+  <si>
+    <t>SQ0527-0002</t>
+  </si>
+  <si>
+    <t>клемма 2</t>
+  </si>
+  <si>
+    <t>клемма 3</t>
+  </si>
+  <si>
+    <t>клемма 4</t>
+  </si>
+  <si>
     <t>Обработка коробок 380В</t>
   </si>
   <si>
-    <t>Гильза соединительная изолированная кв.мм (ГСИ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПВХ 16-25 </t>
-  </si>
-  <si>
-    <t>2F20P</t>
-  </si>
-  <si>
-    <t>Трубка термоусадочная 2/1 черная</t>
-  </si>
-  <si>
-    <t>ТТУ нг-LS</t>
-  </si>
-  <si>
-    <t>UDRS-D2-1-K02</t>
-  </si>
-  <si>
-    <t>Трубка термоусадочная 8/4 черная</t>
-  </si>
-  <si>
-    <t>UDRS-D8-1-K02</t>
-  </si>
-  <si>
-    <t>Трубка термоусадочная 12/6 черная</t>
-  </si>
-  <si>
-    <t>UDRS-D12-1-K02</t>
-  </si>
-  <si>
-    <t>Трубка термоусадочная 16/8 черная</t>
-  </si>
-  <si>
-    <t>UDRS-D16-1-K02</t>
-  </si>
-  <si>
-    <t>Трубка термоусадочная 35/17,5 черная</t>
-  </si>
-  <si>
-    <t>UDRS-D35-1-K02</t>
-  </si>
-  <si>
-    <t>химический анкер 330</t>
-  </si>
-  <si>
-    <t>химический анкер 500</t>
-  </si>
-  <si>
-    <t>спрей диэлектрический 210мл</t>
-  </si>
-  <si>
-    <t>противопожарная пена</t>
-  </si>
-  <si>
-    <t>термоусадочная трубка ж</t>
-  </si>
-  <si>
-    <t>термоусадочная трубка 1ж</t>
-  </si>
-  <si>
-    <t>термоусадочная трубка 2ж</t>
-  </si>
-  <si>
-    <t>термоусадочная трубка 3ж</t>
-  </si>
-  <si>
-    <t>термоусадочная трубка 5ж</t>
-  </si>
-  <si>
-    <t>термоусадочная трубка гофра</t>
-  </si>
-  <si>
-    <t>труба</t>
-  </si>
-  <si>
-    <t>Труба</t>
-  </si>
-  <si>
-    <t>гильза гси</t>
-  </si>
-  <si>
-    <t>винт м4х45 с дюбелем м8</t>
-  </si>
-  <si>
-    <t>винт потайной м6х12</t>
-  </si>
-  <si>
-    <t>анкер-шпилька м8х55</t>
-  </si>
-  <si>
-    <t>анкер-шпилька м12х115</t>
-  </si>
-  <si>
-    <t>анкер-шпилька м10х83</t>
-  </si>
-  <si>
-    <t>заклепка а2/а2 4,0×8 dk6,5 k0,8 f4,1-4,2 d3 l8 g3-5</t>
-  </si>
-  <si>
-    <t>анкер м14</t>
-  </si>
-  <si>
-    <t>болт м4х16</t>
-  </si>
-  <si>
-    <t>анкер м4</t>
-  </si>
-  <si>
-    <t>анкер м5</t>
-  </si>
-  <si>
-    <t>анкер м6</t>
-  </si>
-  <si>
-    <t>анкер м8</t>
-  </si>
-  <si>
-    <t>анкер м10</t>
-  </si>
-  <si>
-    <t>анкер м12</t>
-  </si>
-  <si>
-    <t>болт м5х20</t>
-  </si>
-  <si>
-    <t>болт м5х30</t>
-  </si>
-  <si>
-    <t>болт м6х20</t>
-  </si>
-  <si>
-    <t>болт м6х25</t>
-  </si>
-  <si>
-    <t>болт м6х45</t>
-  </si>
-  <si>
-    <t>болт м8х16</t>
-  </si>
-  <si>
-    <t>болт м8х25</t>
-  </si>
-  <si>
-    <t>болт м8х30</t>
-  </si>
-  <si>
-    <t>болт м8х40</t>
-  </si>
-  <si>
-    <t>болт м8х50</t>
-  </si>
-  <si>
-    <t>болт м8х60 с неполной резьбой</t>
-  </si>
-  <si>
-    <t>болт м8х80</t>
-  </si>
-  <si>
-    <t>болт м10х25</t>
-  </si>
-  <si>
-    <t>болт м10х35</t>
-  </si>
-  <si>
-    <t>болт м10х50</t>
-  </si>
-  <si>
-    <t>болт м10х60</t>
-  </si>
-  <si>
-    <t>болт м10х70</t>
-  </si>
-  <si>
-    <t>болт м10х80</t>
-  </si>
-  <si>
-    <t>болт м10х90</t>
-  </si>
-  <si>
-    <t>болт м10х100</t>
-  </si>
-  <si>
-    <t>болт м10х110</t>
-  </si>
-  <si>
-    <t>болт м10х120</t>
-  </si>
-  <si>
-    <t>болт м12х80</t>
-  </si>
-  <si>
-    <t>гайка м4</t>
-  </si>
-  <si>
-    <t>гайка м5</t>
-  </si>
-  <si>
-    <t>гайка м6</t>
-  </si>
-  <si>
-    <t>гайка м8</t>
-  </si>
-  <si>
-    <t>гайка м10</t>
-  </si>
-  <si>
-    <t>гайка м12</t>
-  </si>
-  <si>
-    <t>гайка самоконтрящаяся м6</t>
-  </si>
-  <si>
-    <t>гайка самоконтрящаяся м8</t>
-  </si>
-  <si>
-    <t>гайка самоконтрящаяся м10</t>
-  </si>
-  <si>
-    <t>гайка самоконтрящаяся м12</t>
-  </si>
-  <si>
-    <t>гайка удлиненная м6</t>
-  </si>
-  <si>
-    <t>гайка удлиненная м8</t>
-  </si>
-  <si>
-    <t>гайка удлиненная м10</t>
-  </si>
-  <si>
-    <t>гайка удлиненная м12</t>
-  </si>
-  <si>
-    <t>гайка м6х25</t>
-  </si>
-  <si>
-    <t>шайба кузовная м4</t>
-  </si>
-  <si>
-    <t>шайба кузовная м5</t>
-  </si>
-  <si>
-    <t>шайба кузовная м6</t>
-  </si>
-  <si>
-    <t>шайба кузовная м8</t>
-  </si>
-  <si>
-    <t>шайба кузовная м10</t>
-  </si>
-  <si>
-    <t>шайба кузовная м12</t>
-  </si>
-  <si>
-    <t>шайба кузовная м14</t>
-  </si>
-  <si>
-    <t>шайба м4</t>
-  </si>
-  <si>
-    <t>шайба м5</t>
-  </si>
-  <si>
-    <t>шайба м6</t>
-  </si>
-  <si>
-    <t>шайба м8</t>
-  </si>
-  <si>
-    <t>шайба м10</t>
-  </si>
-  <si>
-    <t>шайба м12</t>
-  </si>
-  <si>
-    <t>шайба м14</t>
-  </si>
-  <si>
-    <t>шайба гроверная м6</t>
-  </si>
-  <si>
-    <t>шайба гроверная м8</t>
-  </si>
-  <si>
-    <t>шайба гроверная м10</t>
-  </si>
-  <si>
-    <t>шайба гроверная м12</t>
-  </si>
-  <si>
-    <t>шпилька м6</t>
-  </si>
-  <si>
-    <t>шпилька м8</t>
-  </si>
-  <si>
-    <t>шпилька м10</t>
-  </si>
-  <si>
-    <t>шпилька м12</t>
-  </si>
-  <si>
-    <t>шуруп м4</t>
-  </si>
-  <si>
-    <t>шуруп м8</t>
-  </si>
-  <si>
-    <t>профиль z образный 50х50</t>
-  </si>
-  <si>
-    <t>соединитель bpn-29</t>
-  </si>
-  <si>
-    <t>гильза гим-т</t>
-  </si>
-  <si>
-    <t>гвоздь 22мм по бетону для пистолета toua</t>
-  </si>
-  <si>
-    <t>наконечник кольц нки4-8</t>
-  </si>
-  <si>
-    <t>перфолента лсп 20х0.5 25м</t>
-  </si>
-  <si>
-    <t>профиль п-образный 40х56х2010</t>
-  </si>
-  <si>
-    <t>хомут д25 с резьбой м6</t>
-  </si>
-  <si>
-    <t>гладкая пвх труба 25</t>
-  </si>
-  <si>
-    <t>ввг 5х2.5</t>
-  </si>
-  <si>
-    <t>сальник акм20</t>
-  </si>
-  <si>
-    <t>муфта гибкая труба-труба 25</t>
-  </si>
-  <si>
-    <t>П-образный профиль PSM, горячеоцинкованный</t>
-  </si>
-  <si>
-    <t>BPM2930HDZ</t>
-  </si>
-  <si>
-    <t>профиль</t>
-  </si>
-  <si>
-    <t>Профиль</t>
-  </si>
-  <si>
-    <t>крепежи</t>
-  </si>
-  <si>
-    <t>Крепеж</t>
-  </si>
-  <si>
-    <t>Кронштейн К1</t>
-  </si>
-  <si>
-    <t>Кронштейн К2</t>
-  </si>
-  <si>
-    <t>Кронштейн К3</t>
-  </si>
-  <si>
-    <t>Кронштейн К4</t>
-  </si>
-  <si>
-    <t>Кронштейн К5</t>
-  </si>
-  <si>
-    <t>Кронштейн К6</t>
-  </si>
-  <si>
-    <t>кронштейн к1</t>
-  </si>
-  <si>
-    <t>кронштейн к2</t>
-  </si>
-  <si>
-    <t>кронштейн к3</t>
-  </si>
-  <si>
-    <t>кронштейн к4</t>
-  </si>
-  <si>
-    <t>кронштейн к5</t>
-  </si>
-  <si>
-    <t>кронштейн к6</t>
-  </si>
-  <si>
-    <t>бп</t>
-  </si>
-  <si>
-    <t>Блоки питания</t>
-  </si>
-  <si>
-    <t>Блок питания IP67, 120Вт, 220/24В</t>
-  </si>
-  <si>
-    <t>HLG-120H-24</t>
-  </si>
-  <si>
-    <t>MeanWell</t>
-  </si>
-  <si>
-    <t>Блок питания IP67, 60Вт, 220/24В</t>
-  </si>
-  <si>
-    <t>Блок питания IP67, 150Вт, 220/24В</t>
-  </si>
-  <si>
-    <t>Блок питания IP67, 185Вт, 220/24В</t>
-  </si>
-  <si>
-    <t>Блок питания IP67, 240Вт, 220/24В</t>
-  </si>
-  <si>
-    <t>HLG-60H-24</t>
-  </si>
-  <si>
-    <t>HLG-150H-24</t>
-  </si>
-  <si>
-    <t>HLG-185H-24</t>
-  </si>
-  <si>
-    <t>HLG-240H-24</t>
-  </si>
-  <si>
-    <t>бп60</t>
-  </si>
-  <si>
-    <t>бп120</t>
-  </si>
-  <si>
-    <t>бп150</t>
-  </si>
-  <si>
-    <t>бп185</t>
-  </si>
-  <si>
-    <t>бп240</t>
-  </si>
-  <si>
-    <t>ввг 2х2.5</t>
-  </si>
-  <si>
-    <t>Колпачки для герметизации разъёмов последних светильников</t>
-  </si>
-  <si>
-    <t>колпачек для герметизации разъема</t>
-  </si>
-  <si>
-    <t>светильник</t>
-  </si>
-  <si>
-    <t>Светильник</t>
-  </si>
-  <si>
-    <t>универсальный держатель с бетоном</t>
-  </si>
-  <si>
-    <t>пруток металлический д8</t>
-  </si>
-  <si>
-    <t>Пруток металлический оцинкованный</t>
-  </si>
-  <si>
-    <t>Ø8</t>
-  </si>
-  <si>
-    <t>ND1000</t>
-  </si>
-  <si>
-    <t>Универсальный держатель с бетоном</t>
-  </si>
-  <si>
-    <t>ввг 3х2.5</t>
-  </si>
-  <si>
-    <t>управление 10х1</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS(А) 5х2.5мм2</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS(А) 3х2.5мм2</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS(А) 2х2.5мм2</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS 5х1.5мм2</t>
-  </si>
-  <si>
-    <t>щит</t>
-  </si>
-  <si>
-    <t>Щиты</t>
-  </si>
-  <si>
-    <t>Щитовое оборудование</t>
-  </si>
-  <si>
-    <t>Лампа зелёная сигнальная</t>
-  </si>
-  <si>
-    <t>ЛС-47М</t>
-  </si>
-  <si>
-    <t>MLS20-230-K06</t>
-  </si>
-  <si>
-    <t>лампа зеленая</t>
-  </si>
-  <si>
-    <t>зажим наборный</t>
-  </si>
-  <si>
-    <t>YZN10-002-K03</t>
-  </si>
-  <si>
-    <t>Зажим наборный ЗНИ-2,5мм2 (JXB24А)</t>
-  </si>
-  <si>
-    <t>заглушка для кви</t>
-  </si>
-  <si>
-    <t>Заглушка для КВИ-2,5мм2</t>
-  </si>
-  <si>
-    <t>цвет серый</t>
-  </si>
-  <si>
-    <t>YZN30D-ZGL-002-K03</t>
-  </si>
-  <si>
-    <t>контактор</t>
-  </si>
-  <si>
-    <t>Контакторы</t>
-  </si>
-  <si>
-    <t>выключатель</t>
-  </si>
-  <si>
-    <t>реле</t>
-  </si>
-  <si>
-    <t>Реле</t>
-  </si>
-  <si>
-    <t>для щита</t>
-  </si>
-  <si>
-    <t>Для щита</t>
-  </si>
-  <si>
-    <t>Выключатель 3р 20а по умолчанию</t>
-  </si>
-  <si>
-    <t>Автоматический выключатель ВА47-60M 3Р 20А</t>
-  </si>
-  <si>
-    <t>С20А</t>
-  </si>
-  <si>
-    <t>MVA31-3-020-C</t>
-  </si>
-  <si>
-    <t>реле по умолчанию</t>
-  </si>
-  <si>
-    <t>Реле времени программируемое одноканальное</t>
-  </si>
-  <si>
-    <t>PCZ-525-1</t>
-  </si>
-  <si>
-    <t>EA02.002.011</t>
-  </si>
-  <si>
-    <t>Евро-Автоматика</t>
-  </si>
-  <si>
-    <t>контактор км25-40м</t>
-  </si>
-  <si>
-    <t>Контактор модульный КМ25-40М AC/DC IEK</t>
-  </si>
-  <si>
-    <t>25А</t>
-  </si>
-  <si>
-    <t>MKK21-25-40</t>
-  </si>
-  <si>
-    <t>TITAN 3 Корпус металлический ЩРн-72</t>
-  </si>
-  <si>
-    <t>IP31, 540х600х120мм</t>
-  </si>
-  <si>
-    <t>MKM14-N-72-31-Z</t>
-  </si>
-  <si>
-    <t>щит72 ip31 по умолчанию</t>
-  </si>
-  <si>
-    <t>щит54 ip31 по умолчанию</t>
-  </si>
-  <si>
-    <t>TITAN 3 Корпус металлический ЩРн-54</t>
-  </si>
-  <si>
-    <t>IP31, 540х440х120мм</t>
-  </si>
-  <si>
-    <t>MKM14-N-54-31-Z</t>
-  </si>
-  <si>
-    <t>ввг 5х1.5</t>
-  </si>
-  <si>
-    <t>ввг 3х1.5</t>
-  </si>
-  <si>
-    <t>ввг 2х1.5</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS(А) 2х1.5мм2</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS(А) 3х1.5мм2</t>
-  </si>
-  <si>
-    <t>Кабель ВВГнг-LS(А) 5х1.5мм2</t>
-  </si>
-  <si>
-    <t>коробка промрукав</t>
-  </si>
-  <si>
-    <t>Коробка распределительная 60-0300 для прямого монтажа двухкомпонентная безгалогенная (HF) 100х100х50</t>
-  </si>
-  <si>
-    <t>IP66</t>
-  </si>
-  <si>
-    <t>60-0300</t>
-  </si>
-  <si>
-    <t>трубка термоусаживаемая</t>
-  </si>
-  <si>
-    <t>гильзы для подкл свет</t>
-  </si>
-  <si>
-    <t>ГИС-Т 1,5</t>
-  </si>
-  <si>
-    <t>труба вгп 25</t>
-  </si>
-  <si>
-    <t>труба вгп 32</t>
-  </si>
-  <si>
-    <t>Труба ВГП стальная</t>
-  </si>
-  <si>
-    <t>Огнезащитный терморасширяющийся герметик</t>
-  </si>
-  <si>
-    <t>ОГНЕЗА ГТ, 310 мл</t>
-  </si>
-  <si>
-    <t>ОГНЕЗА</t>
-  </si>
-  <si>
-    <t>щит8 прозрачный по умолчанию</t>
-  </si>
-  <si>
-    <t>KREPTA 3 Корпус пластиковый ЩРН-П-8</t>
-  </si>
-  <si>
-    <t>IP41, 184х200х97мм</t>
-  </si>
-  <si>
-    <t>MKP12-N-08-40-20</t>
-  </si>
-  <si>
-    <t>щит96 ip31 по умолчанию</t>
-  </si>
-  <si>
-    <t>Корпус металлический 96 модулей, навесной, 710х600х130мм</t>
-  </si>
-  <si>
-    <t>ЩРн-2x48з-0 36 УХЛ3 IP31 PRO</t>
-  </si>
-  <si>
-    <t>MKM15-N-2X48-31-ZU</t>
-  </si>
-  <si>
-    <t>щит12 прозрачный по умолчанию</t>
-  </si>
-  <si>
-    <t>Корпус пластиковый PRIME, 12 модулей навесной белый</t>
-  </si>
-  <si>
-    <t>ЩРН-П-12 УХЛ3 IP41</t>
-  </si>
-  <si>
-    <t>MKP82-N-12-41-10</t>
-  </si>
-  <si>
-    <t>выключатель нагрузки</t>
-  </si>
-  <si>
-    <t>ВН</t>
-  </si>
-  <si>
-    <t>Выключатель нагрузки (мини-рубильник)</t>
-  </si>
-  <si>
-    <t>ВН-32, 1P, 20А</t>
-  </si>
-  <si>
-    <t>MNV10-1-020</t>
-  </si>
-  <si>
-    <t>Выключатель нагрузки 20А по умолчанию</t>
-  </si>
-  <si>
-    <t>Электромонтажные изделия</t>
-  </si>
-  <si>
-    <t>Электромонтажные устройства и изделия</t>
-  </si>
-  <si>
-    <t>лоток</t>
-  </si>
-  <si>
-    <t>Лоток</t>
-  </si>
-  <si>
-    <t>5х2.5 ввг</t>
-  </si>
-  <si>
-    <t>5х1.5 ввг</t>
-  </si>
-  <si>
-    <t>3х2.5 ввг</t>
-  </si>
-  <si>
-    <t>3х1.5 ввг</t>
-  </si>
-  <si>
-    <t>2х2.5 ввг</t>
-  </si>
-  <si>
-    <t>2х1.5 ввг</t>
-  </si>
-  <si>
-    <t>4х1.5 кввг</t>
-  </si>
-  <si>
-    <t>провод 1х6</t>
-  </si>
-  <si>
-    <t>3x1,5-0,66</t>
-  </si>
-  <si>
-    <t>5x2,5-0,66</t>
-  </si>
-  <si>
-    <t>5x1,5-0,66</t>
-  </si>
-  <si>
-    <t>3x2,5-0,66</t>
-  </si>
-  <si>
-    <t>2x2,5-0,66</t>
-  </si>
-  <si>
-    <t>2x1,5-0,66</t>
-  </si>
-  <si>
-    <t>4х1,5-0.66</t>
-  </si>
-  <si>
-    <t>Провод 1х6</t>
-  </si>
-  <si>
-    <t>ПВ3 жз</t>
-  </si>
-  <si>
-    <t>КВВГнг-LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВГнг-LS </t>
-  </si>
-  <si>
-    <t>металлорукав 20</t>
-  </si>
-  <si>
-    <t>металлорукав 12</t>
-  </si>
-  <si>
-    <t>оконцеватель металлорукава 20</t>
-  </si>
-  <si>
-    <t>оконцеватель металлорукава 12</t>
-  </si>
-  <si>
-    <t>крышка лотка</t>
-  </si>
-  <si>
-    <t>Лоток оцинкованный неперфорированный</t>
-  </si>
-  <si>
-    <t>50х100х3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крышка для лотка </t>
-  </si>
-  <si>
-    <t>100х3000</t>
-  </si>
-  <si>
-    <t>Металлорукав герметичный в ПВХ-изоляции с протяжкой, не поддерживает горение, d внут.=19.6 , d внеш.=23.2</t>
-  </si>
-  <si>
-    <t>МРПИнг 20</t>
-  </si>
-  <si>
-    <t>Металлорукав герметичный в ПВХ-изоляции с протяжкой, не поддерживает горение, d внут.=11.3 , d внеш.=15.3</t>
-  </si>
-  <si>
-    <t>МРПИнг 12</t>
-  </si>
-  <si>
-    <t>Оконцеватель защитный металлорукова МРПИнг 20, dн=30.0</t>
-  </si>
-  <si>
-    <t>ОЗМ-20</t>
-  </si>
-  <si>
-    <t>Оконцеватель защитный металлорукова МРПИнг 12, dн=20.1</t>
-  </si>
-  <si>
-    <t>ОЗМ-12</t>
-  </si>
-  <si>
-    <t>проч эми</t>
-  </si>
-  <si>
-    <t>Проч эми</t>
-  </si>
-  <si>
-    <t>Выкл</t>
-  </si>
-  <si>
-    <t>огнезащитный герметик</t>
-  </si>
-  <si>
-    <t>Огнестойкая монтажная пена</t>
-  </si>
-  <si>
-    <t>ОГНЕЗА EI240, 750мл</t>
-  </si>
-  <si>
-    <t>Соединительная клемма СК-412</t>
-  </si>
-  <si>
-    <t>SQ0527-0011</t>
-  </si>
-  <si>
-    <t>Соединительная клемма СК-413</t>
-  </si>
-  <si>
-    <t>до 2,5мм2, кол.подкл. пров. 2</t>
-  </si>
-  <si>
-    <t>до 2,5мм2, кол.подкл. пров. 3</t>
-  </si>
-  <si>
-    <t>SQ0527-0012</t>
-  </si>
-  <si>
-    <t>tdm-electro</t>
-  </si>
-  <si>
-    <t>шайба гроверная м5</t>
-  </si>
-  <si>
-    <t>клемма ск412</t>
-  </si>
-  <si>
-    <t>клемма ск413</t>
-  </si>
-  <si>
-    <t>Винт потайной М6х12 оцинкованный</t>
-  </si>
-  <si>
-    <t>винт потайной м6х12 нерж</t>
-  </si>
-  <si>
-    <t>7х1.5 кввг</t>
-  </si>
-  <si>
-    <t>7х1,5-0.66</t>
+    <t>ппг 5х2.5</t>
+  </si>
+  <si>
+    <t>ппг 3х2.5</t>
+  </si>
+  <si>
+    <t>ппг 2х2.5</t>
+  </si>
+  <si>
+    <t>ппг 5х1.5</t>
+  </si>
+  <si>
+    <t>ппг 3х1.5</t>
+  </si>
+  <si>
+    <t>ппг 2х1.5</t>
+  </si>
+  <si>
+    <t>лоток 100х50</t>
+  </si>
+  <si>
+    <t>крышка лотка 100х50</t>
+  </si>
+  <si>
+    <t>50x100х3000, 2,0 мм</t>
+  </si>
+  <si>
+    <t>лоток 100х50 поворот 45</t>
+  </si>
+  <si>
+    <t>лоток 100х50 поворот 90</t>
+  </si>
+  <si>
+    <t>лоток 100х50 т ответвитель</t>
+  </si>
+  <si>
+    <t>50х100, 1,5 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50х100, 1,5 мм</t>
+  </si>
+  <si>
+    <t>50х100, 2,0 мм</t>
+  </si>
+  <si>
+    <t>Кабель ППГнг-HF(А) 5х2.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ППГнг-HF(А) 3х2.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ППГнг-HF(А) 2х2.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ППГнг-HF(А) 5х1.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ППГнг-HF(А) 3х1.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ППГнг-HF(А) 2х1.5мм²</t>
+  </si>
+  <si>
+    <t>Кабель ВВГнг-HF 5х1.5мм²</t>
+  </si>
+  <si>
+    <t>щит48 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>щит24 ip31 по умолчанию</t>
+  </si>
+  <si>
+    <t>TITAN 3 Корпус металлический ЩРн-48</t>
+  </si>
+  <si>
+    <t>IP31, 620х310х120мм</t>
+  </si>
+  <si>
+    <t>MKM14-N-48-31-Z</t>
+  </si>
+  <si>
+    <t>TITAN 5 Корпус металлический ЩРв-24</t>
+  </si>
+  <si>
+    <t>IP31, 505х365х130мм</t>
+  </si>
+  <si>
+    <t>TI5-50-V-024-31-7035</t>
+  </si>
+  <si>
+    <t>крышка лоток 100х50 поворот 45</t>
+  </si>
+  <si>
+    <t>крышка лоток 100х50 поворот 90</t>
+  </si>
+  <si>
+    <t>крышка лоток 100х50 т ответвитель</t>
+  </si>
+  <si>
+    <t>Крышка на ответвитель DPT Т-образный горизонтальный</t>
+  </si>
+  <si>
+    <t>SKTS100K</t>
+  </si>
+  <si>
+    <t>STH510K</t>
+  </si>
+  <si>
+    <t>SDM510K</t>
+  </si>
+  <si>
+    <t>SCM510K</t>
+  </si>
+  <si>
+    <t>SNH30510</t>
+  </si>
+  <si>
+    <t>Лоток неперфорированный</t>
+  </si>
+  <si>
+    <t>Крышка на лоток с заземлением</t>
+  </si>
+  <si>
+    <t>Угол горизонтальный 45 градусов</t>
+  </si>
+  <si>
+    <t>Угол горизонтальный 90 градусов</t>
+  </si>
+  <si>
+    <t>Ответвитель Т-образный</t>
+  </si>
+  <si>
+    <t>Крышка на угол CPO 90 горизонтальный</t>
+  </si>
+  <si>
+    <t>SKDS100K</t>
+  </si>
+  <si>
+    <t>Крышка на угол CPO 45 горизонтальный</t>
+  </si>
+  <si>
+    <t>SKCS100K</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2547,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,10 +2587,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2445,10 +2607,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2456,13 +2618,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2470,10 +2632,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>597</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -2481,94 +2643,94 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F8" t="s">
-        <v>544</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>535</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2576,19 +2738,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2596,10 +2758,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2607,19 +2769,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2627,10 +2789,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2638,10 +2800,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2649,10 +2811,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B18" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2660,10 +2822,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -2671,10 +2833,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -2691,8 +2853,8 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,51 +2874,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>2E-3</v>
@@ -2764,22 +2926,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
         <v>161</v>
       </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>3.0000000000000001E-3</v>
@@ -2787,22 +2949,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" t="s">
-        <v>164</v>
-      </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>4.0000000000000001E-3</v>
@@ -2810,22 +2972,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
         <v>165</v>
       </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>8.0000000000000002E-3</v>
@@ -2833,22 +2995,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
         <v>167</v>
       </c>
-      <c r="F6" t="s">
-        <v>168</v>
-      </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>1.2999999999999999E-2</v>
@@ -2856,22 +3018,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>1.2E-2</v>
@@ -2879,22 +3041,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" t="s">
         <v>170</v>
       </c>
-      <c r="F8" t="s">
-        <v>171</v>
-      </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8">
         <v>4.3999999999999997E-2</v>
@@ -2902,22 +3064,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>173</v>
-      </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>2E-3</v>
@@ -2925,22 +3087,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
         <v>174</v>
       </c>
-      <c r="E10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" t="s">
-        <v>175</v>
-      </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>4.0000000000000001E-3</v>
@@ -2948,42 +3110,42 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="3">
         <v>7633</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12">
         <v>6.0000000000000001E-3</v>
@@ -2991,22 +3153,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
         <v>180</v>
       </c>
-      <c r="E13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" t="s">
-        <v>181</v>
-      </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13">
         <v>7.0000000000000001E-3</v>
@@ -3014,22 +3176,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
         <v>182</v>
       </c>
-      <c r="E14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" t="s">
-        <v>183</v>
-      </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14">
         <v>8.9999999999999993E-3</v>
@@ -3037,22 +3199,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
         <v>184</v>
       </c>
-      <c r="E15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" t="s">
-        <v>185</v>
-      </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -3060,22 +3222,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
         <v>186</v>
       </c>
-      <c r="E16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" t="s">
-        <v>187</v>
-      </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16">
         <v>1.2999999999999999E-2</v>
@@ -3083,22 +3245,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>189</v>
-      </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17">
         <v>1.4E-2</v>
@@ -3106,22 +3268,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
         <v>190</v>
       </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" t="s">
-        <v>191</v>
-      </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18">
         <v>1.7999999999999999E-2</v>
@@ -3129,22 +3291,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
         <v>192</v>
       </c>
-      <c r="E19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" t="s">
-        <v>193</v>
-      </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19">
         <v>0.02</v>
@@ -3152,22 +3314,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
         <v>194</v>
       </c>
-      <c r="E20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" t="s">
-        <v>195</v>
-      </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20">
         <v>2.7E-2</v>
@@ -3175,22 +3337,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
         <v>196</v>
       </c>
-      <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" t="s">
-        <v>197</v>
-      </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>0.03</v>
@@ -3198,22 +3360,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" t="s">
         <v>198</v>
       </c>
-      <c r="E22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" t="s">
-        <v>199</v>
-      </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>2.4E-2</v>
@@ -3221,22 +3383,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
         <v>200</v>
       </c>
-      <c r="E23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" t="s">
-        <v>201</v>
-      </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23">
         <v>0.03</v>
@@ -3244,22 +3406,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" t="s">
         <v>202</v>
       </c>
-      <c r="E24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" t="s">
-        <v>203</v>
-      </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24">
         <v>3.5999999999999997E-2</v>
@@ -3267,22 +3429,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" t="s">
         <v>204</v>
       </c>
-      <c r="E25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25">
         <v>4.2000000000000003E-2</v>
@@ -3290,22 +3452,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
         <v>206</v>
       </c>
-      <c r="E26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" t="s">
-        <v>207</v>
-      </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26">
         <v>4.5999999999999999E-2</v>
@@ -3313,22 +3475,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
         <v>208</v>
       </c>
-      <c r="E27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" t="s">
-        <v>209</v>
-      </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27">
         <v>0.05</v>
@@ -3336,22 +3498,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
         <v>210</v>
       </c>
-      <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>211</v>
-      </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28">
         <v>5.5E-2</v>
@@ -3359,22 +3521,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
         <v>212</v>
       </c>
-      <c r="E29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" t="s">
-        <v>213</v>
-      </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29">
         <v>6.6000000000000003E-2</v>
@@ -3382,22 +3544,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" t="s">
         <v>214</v>
       </c>
-      <c r="E30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
-      </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30">
         <v>6.5000000000000002E-2</v>
@@ -3405,22 +3567,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" t="s">
         <v>216</v>
       </c>
-      <c r="E31" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" t="s">
-        <v>217</v>
-      </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31">
         <v>7.1999999999999995E-2</v>
@@ -3428,22 +3590,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
         <v>218</v>
       </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>219</v>
-      </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32">
         <v>7.5999999999999998E-2</v>
@@ -3451,42 +3613,42 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
         <v>221</v>
       </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" t="s">
-        <v>222</v>
-      </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34">
         <v>1E-3</v>
@@ -3494,22 +3656,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" t="s">
         <v>223</v>
       </c>
-      <c r="E35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" t="s">
-        <v>224</v>
-      </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35">
         <v>2E-3</v>
@@ -3517,22 +3679,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36">
         <v>5.0000000000000001E-3</v>
@@ -3540,22 +3702,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37">
         <v>0.01</v>
@@ -3563,22 +3725,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38">
         <v>1.6E-2</v>
@@ -3586,22 +3748,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
         <v>228</v>
       </c>
-      <c r="E39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" t="s">
-        <v>229</v>
-      </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39">
         <v>2E-3</v>
@@ -3609,22 +3771,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40">
         <v>5.0000000000000001E-3</v>
@@ -3632,22 +3794,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41">
         <v>1.0999999999999999E-2</v>
@@ -3655,22 +3817,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42">
         <v>1.4999999999999999E-2</v>
@@ -3678,22 +3840,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" t="s">
         <v>233</v>
       </c>
-      <c r="E43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" t="s">
-        <v>234</v>
-      </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43">
         <v>1.2E-2</v>
@@ -3701,22 +3863,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
         <v>235</v>
       </c>
-      <c r="E44" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" t="s">
-        <v>236</v>
-      </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44">
         <v>1.7999999999999999E-2</v>
@@ -3724,22 +3886,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="s">
         <v>237</v>
       </c>
-      <c r="E45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" t="s">
-        <v>238</v>
-      </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45">
         <v>4.1000000000000002E-2</v>
@@ -3747,22 +3909,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
         <v>239</v>
       </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" t="s">
-        <v>240</v>
-      </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46">
         <v>6.5000000000000002E-2</v>
@@ -3770,22 +3932,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" t="s">
         <v>233</v>
       </c>
-      <c r="E47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" t="s">
-        <v>234</v>
-      </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47">
         <v>1.2E-2</v>
@@ -3793,91 +3955,91 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" t="s">
         <v>241</v>
-      </c>
-      <c r="E48" t="s">
-        <v>242</v>
       </c>
       <c r="F48">
         <v>11110814006</v>
       </c>
       <c r="G48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
         <v>243</v>
-      </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49">
         <v>11110814008</v>
       </c>
       <c r="G49" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
         <v>243</v>
-      </c>
-      <c r="H49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50">
         <v>11110814010</v>
       </c>
       <c r="G50" t="s">
+        <v>242</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
         <v>243</v>
-      </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s">
         <v>247</v>
       </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s">
-        <v>248</v>
-      </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51">
         <v>8.0000000000000004E-4</v>
@@ -3885,22 +4047,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52">
         <v>1E-3</v>
@@ -3908,22 +4070,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53">
         <v>3.0000000000000001E-3</v>
@@ -3931,22 +4093,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54">
         <v>6.0000000000000001E-3</v>
@@ -3954,22 +4116,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55">
         <v>1.0999999999999999E-2</v>
@@ -3977,22 +4139,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56">
         <v>2.1999999999999999E-2</v>
@@ -4000,22 +4162,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57">
         <v>2.8000000000000001E-2</v>
@@ -4023,22 +4185,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
         <v>255</v>
       </c>
-      <c r="E58" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s">
-        <v>256</v>
-      </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I58">
         <v>1E-3</v>
@@ -4046,22 +4208,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59">
         <v>1E-3</v>
@@ -4069,22 +4231,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60">
         <v>1E-3</v>
@@ -4092,22 +4254,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61">
         <v>2E-3</v>
@@ -4115,22 +4277,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62">
         <v>4.0000000000000001E-3</v>
@@ -4138,22 +4300,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63">
         <v>6.0000000000000001E-3</v>
@@ -4161,22 +4323,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64">
         <v>8.0000000000000002E-3</v>
@@ -4184,39 +4346,39 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" t="s">
         <v>263</v>
       </c>
-      <c r="E66" t="s">
-        <v>163</v>
-      </c>
-      <c r="F66" t="s">
-        <v>264</v>
-      </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I66">
         <v>1E-3</v>
@@ -4224,22 +4386,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I67">
         <v>1E-3</v>
@@ -4247,22 +4409,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68">
         <v>2E-3</v>
@@ -4270,22 +4432,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69">
         <v>4.0000000000000001E-3</v>
@@ -4293,25 +4455,25 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" t="s">
         <v>268</v>
       </c>
-      <c r="E70" t="s">
-        <v>163</v>
-      </c>
-      <c r="F70" t="s">
-        <v>269</v>
-      </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I70">
         <v>7.5999999999999998E-2</v>
@@ -4319,25 +4481,25 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I71">
         <v>0.1575</v>
@@ -4345,25 +4507,25 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I72">
         <v>0.23</v>
@@ -4371,25 +4533,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73">
         <v>0.35</v>
@@ -4397,53 +4559,53 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +4620,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,111 +4640,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
       </c>
       <c r="F2">
         <v>2004209</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>2004202</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4">
         <v>2004197</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5">
         <v>24676</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>2.8999999999999998E-3</v>
@@ -4590,39 +4752,39 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>6551</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>4.0000000000000001E-3</v>
@@ -4630,50 +4792,50 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" t="s">
         <v>285</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>286</v>
       </c>
-      <c r="F10" t="s">
-        <v>287</v>
-      </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>6.0000000000000001E-3</v>
@@ -4691,7 +4853,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,371 +4875,371 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
       <c r="F2">
         <v>2031400</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
         <v>292</v>
-      </c>
-      <c r="E3" t="s">
-        <v>293</v>
       </c>
       <c r="F3">
         <v>2031079</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
       </c>
       <c r="F4">
         <v>2031400</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
         <v>290</v>
       </c>
-      <c r="D5" t="s">
-        <v>291</v>
-      </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>295</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="E6" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F6">
         <v>105248</v>
       </c>
       <c r="G6" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F7">
         <v>105038</v>
       </c>
       <c r="G7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" t="s">
         <v>299</v>
       </c>
-      <c r="E8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" t="s">
-        <v>301</v>
-      </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>111</v>
       </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>110</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>111</v>
       </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5115,45 +5277,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5172,12 +5334,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="54.42578125" customWidth="1"/>
@@ -5192,150 +5354,150 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="s">
         <v>434</v>
       </c>
-      <c r="E2" t="s">
-        <v>438</v>
-      </c>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" t="s">
         <v>435</v>
       </c>
-      <c r="E4" t="s">
-        <v>439</v>
-      </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" t="s">
         <v>436</v>
       </c>
-      <c r="E5" t="s">
-        <v>440</v>
-      </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" t="s">
         <v>437</v>
       </c>
-      <c r="E6" t="s">
-        <v>441</v>
-      </c>
       <c r="G6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5350,11 +5512,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045BD59-0024-4A6A-A7D6-870EF5E925B3}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5375,51 +5537,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>11.95</v>
@@ -5427,22 +5589,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>10.6</v>
@@ -5450,22 +5612,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>8.6</v>
@@ -5473,47 +5635,87 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>631</v>
       </c>
       <c r="D5" t="s">
-        <v>526</v>
+        <v>633</v>
       </c>
       <c r="E5" t="s">
-        <v>527</v>
+        <v>634</v>
       </c>
       <c r="F5" t="s">
-        <v>528</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>0.49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="D6" t="s">
-        <v>534</v>
+        <v>636</v>
       </c>
       <c r="E6" t="s">
-        <v>535</v>
+        <v>637</v>
       </c>
       <c r="F6" t="s">
-        <v>536</v>
+        <v>638</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
         <v>0.79</v>
       </c>
     </row>
@@ -5545,51 +5747,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5620,51 +5822,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5695,51 +5897,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="E2" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5771,51 +5973,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5825,11 +6027,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,289 +6052,373 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
+        <v>591</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>592</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
-        <v>462</v>
+        <v>593</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>594</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>510</v>
+        <v>595</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>596</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>609</v>
       </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>624</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>547</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="E9" t="s">
-        <v>565</v>
+        <v>610</v>
+      </c>
+      <c r="D9" t="s">
+        <v>625</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E10" t="s">
-        <v>565</v>
+        <v>611</v>
+      </c>
+      <c r="D10" t="s">
+        <v>626</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E11" t="s">
-        <v>565</v>
+        <v>612</v>
+      </c>
+      <c r="D11" t="s">
+        <v>627</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>550</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E12" t="s">
-        <v>565</v>
+        <v>613</v>
+      </c>
+      <c r="D12" t="s">
+        <v>628</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E13" t="s">
-        <v>565</v>
+        <v>614</v>
+      </c>
+      <c r="D13" t="s">
+        <v>629</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>552</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="E14" t="s">
-        <v>565</v>
+        <v>455</v>
+      </c>
+      <c r="D14" t="s">
+        <v>630</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E15" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E17" t="s">
         <v>554</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="E17" t="s">
-        <v>563</v>
-      </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
+      <c r="A18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" t="s">
+        <v>554</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
+      <c r="A19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E19" t="s">
+        <v>554</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E20" t="s">
+        <v>554</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E21" t="s">
+        <v>553</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E22" t="s">
+        <v>553</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>543</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E23" t="s">
+        <v>552</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6161,94 +6447,94 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6283,54 +6569,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
       <c r="F2">
         <v>63925</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>4.4999999999999998E-2</v>
@@ -6338,108 +6624,108 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>105</v>
       </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>103</v>
       </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>50125</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>50132</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>50325</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>8.1000000000000003E-2</v>
@@ -6447,108 +6733,108 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>50332</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E9" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F9">
         <v>65021</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="F10">
         <v>65019</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" t="s">
         <v>568</v>
       </c>
-      <c r="D11" t="s">
-        <v>579</v>
-      </c>
       <c r="E11" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="F11">
         <v>68406</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D12" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="E12" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F12">
         <v>68404</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6563,7 +6849,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6584,82 +6870,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>126</v>
       </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
         <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
       </c>
       <c r="F4">
         <v>53700</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>7.0000000000000007E-2</v>
@@ -6667,22 +6953,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
       </c>
       <c r="F5">
         <v>65303</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>0.79</v>
@@ -6690,22 +6976,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
         <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
       </c>
       <c r="F6">
         <v>53700</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>7.0000000000000007E-2</v>
@@ -6713,56 +6999,56 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" t="s">
         <v>119</v>
       </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>0.24</v>
@@ -6770,19 +7056,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
         <v>133</v>
       </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>0.24</v>
@@ -6790,39 +7076,39 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
         <v>125</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E12" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="F12" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6836,17 +7122,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D597B-F7C3-4E52-B30F-341D73D4634A}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6854,77 +7143,258 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="E2" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F2">
         <v>35022</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="F3">
         <v>35522</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F5">
+        <v>35522</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" t="s">
+        <v>646</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" t="s">
+        <v>645</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D9" t="s">
+        <v>655</v>
+      </c>
+      <c r="F9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D10" t="s">
+        <v>653</v>
+      </c>
+      <c r="F10" t="s">
+        <v>654</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" t="s">
+        <v>643</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -6959,51 +7429,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>0.06</v>
@@ -7011,22 +7481,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>1.67</v>
@@ -7034,42 +7504,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>94</v>
       </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>1.74</v>
@@ -7077,22 +7547,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" t="s">
         <v>143</v>
       </c>
-      <c r="F6" t="s">
-        <v>144</v>
-      </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>1.47</v>
@@ -7100,22 +7570,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
         <v>145</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>146</v>
       </c>
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>2.65</v>
@@ -7123,42 +7593,42 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
         <v>139</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>140</v>
       </c>
-      <c r="F9" t="s">
-        <v>141</v>
-      </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7171,317 +7641,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA604B-7F67-4F4A-BA76-E6F21752A0D7}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F3">
-        <v>59122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F4" t="s">
-        <v>590</v>
-      </c>
-      <c r="G4" t="s">
-        <v>595</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D5" t="s">
-        <v>591</v>
-      </c>
-      <c r="E5" t="s">
-        <v>593</v>
-      </c>
-      <c r="F5" t="s">
-        <v>594</v>
-      </c>
-      <c r="G5" t="s">
-        <v>595</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D5F983-AC44-4E4D-BCDD-23216F1CD835}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D31DCAC-775E-456E-95AF-67E4EBFD06EC}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>419</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>420</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7502,378 +7667,778 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>419</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>58026</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA604B-7F67-4F4A-BA76-E6F21752A0D7}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3">
+        <v>59122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" t="s">
+        <v>583</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>602</v>
+      </c>
+      <c r="F6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" t="s">
+        <v>582</v>
+      </c>
+      <c r="F8" t="s">
+        <v>604</v>
+      </c>
+      <c r="G8" t="s">
+        <v>583</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F9" t="s">
+        <v>603</v>
+      </c>
+      <c r="G9" t="s">
+        <v>583</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>115</v>
       </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>289</v>
+      </c>
       <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <v>0.03</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
+      <c r="A10" t="s">
+        <v>449</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
+        <v>450</v>
+      </c>
+      <c r="E10" t="s">
+        <v>451</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>406</v>
+      <c r="A11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>58026</v>
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>1.7000000000000001E-2</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>452</v>
+      <c r="A12" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
-      </c>
-      <c r="F12" t="s">
-        <v>456</v>
+        <v>510</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>453</v>
+      <c r="A13" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" t="s">
-        <v>521</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" t="s">
-        <v>521</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-    <sortCondition ref="A2:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I9">
+    <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Library.xlsx
+++ b/Library.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="665">
   <si>
     <t xml:space="preserve">Subcategory</t>
   </si>
@@ -2052,27 +2052,6 @@
   </si>
   <si>
     <t xml:space="preserve">MLS20-230-K06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">зажим наборный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зажим наборный ЗНИ-2,5мм2 (JXB24А)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">цвет серый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YZN10-002-K03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">заглушка для кви</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заглушка для КВИ-2,5мм2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YZN30D-ZGL-002-K03</t>
   </si>
 </sst>
 </file>
@@ -2186,36 +2165,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2238,290 +2221,290 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E23" activeCellId="1" sqref="A3:J6 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2547,224 +2530,224 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="1" sqref="A3:J6 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="67.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2004209</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2004202</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2004197</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>24676</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.0029</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>6551</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
@@ -2789,397 +2772,397 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="1" sqref="A3:J6 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="52.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2031400</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2031079</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2031400</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>105248</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>105038</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E82" s="4"/>
+      <c r="E82" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3202,64 +3185,64 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="E21" activeCellId="1" sqref="A3:J6 E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3284,169 +3267,169 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="A3:J6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3471,206 +3454,206 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="1" sqref="A3:J6 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>11.95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>10.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>8.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -3693,67 +3676,67 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="A3:J6 I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3776,68 +3759,68 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A3:J6 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3860,68 +3843,68 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="A3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3944,68 +3927,68 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="M28" activeCellId="1" sqref="A3:J6 M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4025,115 +4008,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4155,394 +4108,394 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="1" sqref="A3:J6 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="30.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4565,318 +4518,318 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="1" sqref="A3:J6 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>63925</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.045</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>50125</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>50132</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>50325</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>0.081</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>50332</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>65021</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>65019</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>68406</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>68404</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4901,285 +4854,285 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="1" sqref="A3:J6 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>53700</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>65303</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>53700</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5202,508 +5155,508 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3:J6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>35022</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>35522</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="G3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>3.46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>35522</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.827</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>1.48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>35023</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <v>1.54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>3552315</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="0" t="s">
+      <c r="G13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="G15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="G16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>2.68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="0" t="s">
+      <c r="G17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="0" t="s">
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="0" t="n">
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>38123</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="0" t="n">
+      <c r="G21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5728,226 +5681,226 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="A3:J6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="G3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>1.74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>1.47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>2.65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5970,231 +5923,231 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A3:J6 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>59122</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
@@ -6219,321 +6172,321 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C10" activeCellId="1" sqref="A3:J6 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6556,1759 +6509,1759 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="1" sqref="A3:J6 A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="G3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.003</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0.013</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>0.044</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>7633</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="G13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <v>0.007</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>0.009</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="G15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="G16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>0.013</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="0" t="n">
+      <c r="G17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>0.014</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="0" t="n">
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="0" t="n">
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="0" t="n">
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="0" t="n">
+      <c r="G21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="0" t="n">
+      <c r="G22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="1" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="0" t="n">
+      <c r="G23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="1" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="0" t="n">
+      <c r="G24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>0.036</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="0" t="n">
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="1" t="n">
         <v>0.042</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="0" t="n">
+      <c r="G26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="1" t="n">
         <v>0.046</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="0" t="n">
+      <c r="G27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="1" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="0" t="n">
+      <c r="G28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="1" t="n">
         <v>0.055</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="0" t="n">
+      <c r="G29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <v>0.066</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="0" t="n">
+      <c r="G30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="1" t="n">
         <v>0.065</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="0" t="n">
+      <c r="G31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="1" t="n">
         <v>0.072</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="G32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="1" t="n">
         <v>0.076</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="0" t="n">
+      <c r="G34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="0" t="n">
+      <c r="G35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="0" t="n">
+      <c r="G36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="0" t="n">
+      <c r="G37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="0" t="n">
+      <c r="G38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="1" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="0" t="n">
+      <c r="G39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="0" t="n">
+      <c r="G40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="1" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="G41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="1" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" s="0" t="n">
+      <c r="G42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="1" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" s="0" t="n">
+      <c r="G43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="1" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="0" t="n">
+      <c r="G44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="0" t="n">
+      <c r="G45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="1" t="n">
         <v>0.041</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="0" t="n">
+      <c r="G46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="1" t="n">
         <v>0.065</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I47" s="0" t="n">
+      <c r="G47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="1" t="n">
         <v>0.012</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>11110814006</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" s="0" t="s">
+      <c r="H48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>11110814008</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J49" s="0" t="s">
+      <c r="H49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>11110814010</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J50" s="0" t="s">
+      <c r="H50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="0" t="n">
+      <c r="G51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="1" t="n">
         <v>0.0008</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" s="0" t="n">
+      <c r="G52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="0" t="n">
+      <c r="G53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="1" t="n">
         <v>0.003</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="0" t="n">
+      <c r="G54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="0" t="n">
+      <c r="G55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="1" t="n">
         <v>0.011</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I56" s="0" t="n">
+      <c r="G56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" s="1" t="n">
         <v>0.022</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G57" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I57" s="0" t="n">
+      <c r="G57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="1" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I58" s="0" t="n">
+      <c r="G58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59" s="0" t="n">
+      <c r="G59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G60" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="0" t="n">
+      <c r="G60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G61" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I61" s="0" t="n">
+      <c r="G61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G62" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I62" s="0" t="n">
+      <c r="G62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G63" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I63" s="0" t="n">
+      <c r="G63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I63" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I64" s="0" t="n">
+      <c r="G64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I64" s="1" t="n">
         <v>0.008</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="0" t="n">
+      <c r="G66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G67" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I67" s="0" t="n">
+      <c r="G67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G68" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I68" s="0" t="n">
+      <c r="G68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G69" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I69" s="0" t="n">
+      <c r="G69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H70" s="0" t="s">
+      <c r="G70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70" s="1" t="n">
         <v>0.076</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="0" t="s">
+      <c r="G71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71" s="1" t="n">
         <v>0.1575</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="0" t="s">
+      <c r="G72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="I72" s="1" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" s="0" t="s">
+      <c r="G73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73" s="1" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="1" t="s">
         <v>113</v>
       </c>
     </row>
